--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1292153.801943016</v>
+        <v>1289276.024468007</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25793588.65960982</v>
+        <v>25793588.65960983</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4531414.533550202</v>
+        <v>4531414.533550203</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>7.602798843930213</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="D3" t="n">
         <v>24.76484596498756</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>28.11631013281968</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362102</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>24.76484596498758</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,11 +1053,11 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28.11631013281968</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1214,59 +1214,59 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24.76484596498756</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="T9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="X9" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>24.76484596498758</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>176.7638143812667</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6336565424721</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.04871649917061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>83.32475621171218</v>
+        <v>105.6435547546129</v>
       </c>
       <c r="G13" t="n">
         <v>163.8222853925791</v>
@@ -1578,7 +1578,7 @@
         <v>11.85114634893206</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9778450140267</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.6069191183444</v>
@@ -1587,16 +1587,16 @@
         <v>277.3404886720007</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>272.0336260569935</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6336565424721</v>
+        <v>113.9971939505291</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8222853925791</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.55129030293031</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.85114634893206</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9778450140267</v>
+        <v>41.47807491414883</v>
       </c>
       <c r="T16" t="n">
         <v>237.6069191183444</v>
@@ -1827,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>174.0983491139937</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5743746979489</v>
+        <v>354.9648944892068</v>
       </c>
       <c r="H17" t="n">
-        <v>277.2614609331368</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1813372409181</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6336565424721</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>145.7982118282555</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2019,10 +2019,10 @@
         <v>163.8222853925791</v>
       </c>
       <c r="H19" t="n">
-        <v>117.5670307377656</v>
+        <v>135.4935049471435</v>
       </c>
       <c r="I19" t="n">
-        <v>75.55129030293031</v>
+        <v>57.6248160935524</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>261.7770056510967</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>148.3063252806423</v>
       </c>
       <c r="G20" t="n">
         <v>398.5743746979489</v>
       </c>
       <c r="H20" t="n">
-        <v>277.2614609331368</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>64.09956378146836</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1813372409181</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6336565424721</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2256,7 +2256,7 @@
         <v>163.8222853925791</v>
       </c>
       <c r="H22" t="n">
-        <v>117.5670307377656</v>
+        <v>135.4935049471435</v>
       </c>
       <c r="I22" t="n">
         <v>75.55129030293031</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.85114634893206</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9778450140267</v>
+        <v>148.9025171535812</v>
       </c>
       <c r="T22" t="n">
         <v>237.6069191183444</v>
@@ -2320,7 +2320,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>293.5493224610238</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -2335,7 +2335,7 @@
         <v>398.5743746979489</v>
       </c>
       <c r="H23" t="n">
-        <v>84.07949692585866</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>211.1813372409181</v>
@@ -2490,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>145.895811183202</v>
+        <v>163.8222853925791</v>
       </c>
       <c r="H25" t="n">
         <v>135.4935049471435</v>
       </c>
       <c r="I25" t="n">
-        <v>75.55129030293031</v>
+        <v>57.62481609355324</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>120.3359823161078</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>119.4214300828959</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2733,7 +2733,7 @@
         <v>135.4935049471435</v>
       </c>
       <c r="I28" t="n">
-        <v>57.62481609355353</v>
+        <v>75.55129030293031</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.85114634893206</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>154.9778450140267</v>
+        <v>148.9025171535825</v>
       </c>
       <c r="T28" t="n">
         <v>237.6069191183444</v>
@@ -2794,13 +2794,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>120.3359823161078</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>119.4214300828959</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2964,10 +2964,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8222853925791</v>
+        <v>157.7469575321343</v>
       </c>
       <c r="H31" t="n">
-        <v>117.5670307377668</v>
+        <v>135.4935049471435</v>
       </c>
       <c r="I31" t="n">
         <v>75.55129030293031</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>11.85114634893206</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>154.9778450140267</v>
@@ -3040,13 +3040,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>118.5771996217686</v>
+        <v>395.8386605549055</v>
       </c>
       <c r="G32" t="n">
         <v>398.5743746979489</v>
       </c>
       <c r="H32" t="n">
-        <v>277.2614609331368</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>135.4935049471435</v>
       </c>
       <c r="I34" t="n">
-        <v>57.62481609355353</v>
+        <v>75.55129030293031</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>154.9778450140267</v>
       </c>
       <c r="T34" t="n">
-        <v>237.6069191183444</v>
+        <v>219.6804449089681</v>
       </c>
       <c r="U34" t="n">
         <v>277.3404886720007</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>382.2721376106855</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>64.09956378146836</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.1813372409181</v>
       </c>
       <c r="U35" t="n">
-        <v>13.47886298617867</v>
+        <v>255.6336565424721</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>170.3378348155671</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3438,7 +3438,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>145.8958111832012</v>
+        <v>163.8222853925791</v>
       </c>
       <c r="H37" t="n">
         <v>135.4935049471435</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>74.2936195978351</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3511,13 +3511,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.5743746979489</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>277.2614609331368</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>89.38933354882249</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>152.3263632804953</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3681,7 +3681,7 @@
         <v>135.4935049471435</v>
       </c>
       <c r="I40" t="n">
-        <v>75.55129030293031</v>
+        <v>69.47596244248435</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>11.85114634893206</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>154.9778450140267</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>94.48601892458373</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.5743746979489</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>211.1813372409181</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6336565424721</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>317.4098245099597</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.0851878638137</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,16 +3906,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.8222853925791</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>135.4935049471435</v>
       </c>
       <c r="I43" t="n">
         <v>75.55129030293031</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.9778450140267</v>
       </c>
       <c r="T43" t="n">
-        <v>237.6069191183444</v>
+        <v>7.200132499547507</v>
       </c>
       <c r="U43" t="n">
         <v>277.3404886720007</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>176.9421432370074</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>129.6714682640859</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.1813372409181</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6336565424721</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>143.3291172134866</v>
       </c>
       <c r="H46" t="n">
-        <v>135.4935049471435</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.85114634893206</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9778450140267</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.6069191183444</v>
       </c>
       <c r="U46" t="n">
         <v>277.3404886720007</v>
       </c>
       <c r="V46" t="n">
-        <v>255.6568504404412</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359846</v>
+        <v>87.68081948359844</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730264</v>
+        <v>64.82049353730262</v>
       </c>
       <c r="D2" t="n">
         <v>45.56827676270698</v>
@@ -4330,28 +4330,28 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J2" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K2" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L2" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="M2" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="N2" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="O2" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="P2" t="n">
+        <v>56.79494646829576</v>
+      </c>
+      <c r="Q2" t="n">
         <v>84.63009349978725</v>
-      </c>
-      <c r="P2" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="R2" t="n">
         <v>112.4652405312787</v>
@@ -4372,7 +4372,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X2" t="n">
-        <v>104.7856457394301</v>
+        <v>104.78564573943</v>
       </c>
       <c r="Y2" t="n">
         <v>103.4887797347244</v>
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>112.4652405312787</v>
+      </c>
+      <c r="C3" t="n">
         <v>84.0649272658043</v>
-      </c>
-      <c r="C3" t="n">
-        <v>59.04993134157444</v>
       </c>
       <c r="D3" t="n">
         <v>59.04993134157444</v>
       </c>
       <c r="E3" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F3" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G3" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H3" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="J3" t="n">
+        <v>9.695947772537416</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.695947772537416</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9.695947772537416</v>
+      </c>
+      <c r="M3" t="n">
         <v>28.95979943680427</v>
-      </c>
-      <c r="K3" t="n">
-        <v>28.95979943680427</v>
-      </c>
-      <c r="L3" t="n">
-        <v>28.95979943680427</v>
-      </c>
-      <c r="M3" t="n">
-        <v>56.79494646829576</v>
       </c>
       <c r="N3" t="n">
         <v>56.79494646829576</v>
@@ -4439,22 +4439,22 @@
         <v>112.4652405312787</v>
       </c>
       <c r="T3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="X3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="C4" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D4" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E4" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F4" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G4" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H4" t="n">
         <v>30.6496180761</v>
@@ -4494,16 +4494,16 @@
         <v>2.249304810625575</v>
       </c>
       <c r="L4" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="M4" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="N4" t="n">
-        <v>30.08445184211706</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="O4" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P4" t="n">
         <v>84.63009349978725</v>
@@ -4512,28 +4512,28 @@
         <v>112.4652405312787</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T4" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="U4" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="V4" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="W4" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="X4" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.68081948359846</v>
+        <v>87.68081948359844</v>
       </c>
       <c r="C5" t="n">
-        <v>64.82049353730264</v>
+        <v>64.82049353730262</v>
       </c>
       <c r="D5" t="n">
-        <v>45.56827676270699</v>
+        <v>45.56827676270698</v>
       </c>
       <c r="E5" t="n">
         <v>23.63174095096858</v>
@@ -4567,22 +4567,22 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J5" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K5" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L5" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="M5" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="N5" t="n">
-        <v>57.91959887360855</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="O5" t="n">
-        <v>57.91959887360855</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P5" t="n">
         <v>84.63009349978725</v>
@@ -4609,7 +4609,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X5" t="n">
-        <v>104.7856457394301</v>
+        <v>104.78564573943</v>
       </c>
       <c r="Y5" t="n">
         <v>103.4887797347244</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="C6" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="D6" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="E6" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="F6" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="G6" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H6" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="I6" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="J6" t="n">
-        <v>2.249304810625575</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="K6" t="n">
-        <v>2.249304810625575</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="L6" t="n">
-        <v>30.08445184211706</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="M6" t="n">
-        <v>30.08445184211706</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N6" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O6" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P6" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q6" t="n">
         <v>84.63009349978725</v>
@@ -4673,25 +4673,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S6" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T6" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U6" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V6" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W6" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X6" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="C7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F7" t="n">
         <v>2.249304810625575</v>
@@ -4728,19 +4728,19 @@
         <v>2.249304810625575</v>
       </c>
       <c r="K7" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L7" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="M7" t="n">
-        <v>85.75474590510004</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="N7" t="n">
-        <v>85.75474590510004</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="O7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P7" t="n">
         <v>112.4652405312787</v>
@@ -4749,28 +4749,28 @@
         <v>112.4652405312787</v>
       </c>
       <c r="R7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W7" t="n">
+        <v>84.0649272658043</v>
+      </c>
+      <c r="X7" t="n">
         <v>59.04993134157444</v>
       </c>
-      <c r="X7" t="n">
-        <v>30.6496180761</v>
-      </c>
       <c r="Y7" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
     </row>
     <row r="8">
@@ -4804,19 +4804,19 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J8" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K8" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L8" t="n">
-        <v>57.91959887360855</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M8" t="n">
-        <v>57.91959887360855</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N8" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O8" t="n">
         <v>84.63009349978725</v>
@@ -4825,7 +4825,7 @@
         <v>84.63009349978725</v>
       </c>
       <c r="Q8" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="R8" t="n">
         <v>112.4652405312787</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.04993134157444</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="C9" t="n">
-        <v>30.6496180761</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="D9" t="n">
-        <v>30.6496180761</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="E9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F9" t="n">
         <v>2.249304810625575</v>
@@ -4880,19 +4880,19 @@
         <v>2.249304810625575</v>
       </c>
       <c r="I9" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="J9" t="n">
-        <v>2.249304810625575</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="K9" t="n">
-        <v>2.249304810625575</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="L9" t="n">
-        <v>30.08445184211706</v>
+        <v>65.36624183552038</v>
       </c>
       <c r="M9" t="n">
-        <v>56.79494646829576</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="N9" t="n">
         <v>84.63009349978725</v>
@@ -4910,25 +4910,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S9" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T9" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="U9" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="V9" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="W9" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="X9" t="n">
-        <v>87.45024460704886</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="Y9" t="n">
-        <v>59.04993134157444</v>
+        <v>27.26430073485544</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="C10" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D10" t="n">
         <v>2.249304810625575</v>
@@ -4962,52 +4962,52 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J10" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K10" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L10" t="n">
         <v>30.08445184211706</v>
       </c>
       <c r="M10" t="n">
-        <v>30.08445184211706</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N10" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O10" t="n">
         <v>84.63009349978725</v>
       </c>
       <c r="P10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q10" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R10" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S10" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T10" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U10" t="n">
+        <v>84.0649272658043</v>
+      </c>
+      <c r="V10" t="n">
+        <v>84.0649272658043</v>
+      </c>
+      <c r="W10" t="n">
+        <v>84.0649272658043</v>
+      </c>
+      <c r="X10" t="n">
         <v>59.04993134157444</v>
       </c>
-      <c r="V10" t="n">
-        <v>30.6496180761</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.249304810625575</v>
-      </c>
-      <c r="X10" t="n">
-        <v>2.249304810625575</v>
-      </c>
       <c r="Y10" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>888.3041454079472</v>
+        <v>1490.998831720314</v>
       </c>
       <c r="C11" t="n">
-        <v>461.4034154212473</v>
+        <v>1064.098101733615</v>
       </c>
       <c r="D11" t="n">
-        <v>461.4034154212473</v>
+        <v>640.8054809186149</v>
       </c>
       <c r="E11" t="n">
-        <v>461.4034154212473</v>
+        <v>214.8285410664724</v>
       </c>
       <c r="F11" t="n">
         <v>36.27923361064751</v>
@@ -5047,10 +5047,10 @@
         <v>364.6386978116047</v>
       </c>
       <c r="L11" t="n">
-        <v>606.0671001877731</v>
+        <v>595.6270301933496</v>
       </c>
       <c r="M11" t="n">
-        <v>868.2324102339578</v>
+        <v>857.7923402395343</v>
       </c>
       <c r="N11" t="n">
         <v>1135.389572943643</v>
@@ -5074,19 +5074,19 @@
         <v>1749.21464640968</v>
       </c>
       <c r="U11" t="n">
-        <v>1749.21464640968</v>
+        <v>1490.998831720314</v>
       </c>
       <c r="V11" t="n">
-        <v>1749.21464640968</v>
+        <v>1490.998831720314</v>
       </c>
       <c r="W11" t="n">
-        <v>1749.21464640968</v>
+        <v>1490.998831720314</v>
       </c>
       <c r="X11" t="n">
-        <v>1337.494647577427</v>
+        <v>1490.998831720314</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.152509699477</v>
+        <v>1490.998831720314</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>475.9820170681692</v>
       </c>
       <c r="D12" t="n">
-        <v>372.1420585834541</v>
+        <v>372.1420585834543</v>
       </c>
       <c r="E12" t="n">
-        <v>267.4401248563913</v>
+        <v>267.4401248563915</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7942945392954</v>
+        <v>173.7942945392956</v>
       </c>
       <c r="G12" t="n">
-        <v>80.67080067165148</v>
+        <v>80.67080067165169</v>
       </c>
       <c r="H12" t="n">
         <v>36.27923361064751</v>
       </c>
       <c r="I12" t="n">
-        <v>51.66049294899003</v>
+        <v>75.11779879340187</v>
       </c>
       <c r="J12" t="n">
-        <v>117.397323715572</v>
+        <v>154.9372279306031</v>
       </c>
       <c r="K12" t="n">
-        <v>499.7358588349892</v>
+        <v>279.9921011368463</v>
       </c>
       <c r="L12" t="n">
-        <v>675.4149815283872</v>
+        <v>455.6712238302442</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.37049746015</v>
+        <v>663.8259648425392</v>
       </c>
       <c r="N12" t="n">
-        <v>1340.375879882087</v>
+        <v>879.8313472644757</v>
       </c>
       <c r="O12" t="n">
-        <v>1534.367888001551</v>
+        <v>1073.82335538394</v>
       </c>
       <c r="P12" t="n">
-        <v>1686.921953890432</v>
+        <v>1226.377421272821</v>
       </c>
       <c r="Q12" t="n">
-        <v>1780.78843748949</v>
+        <v>1675.332937204584</v>
       </c>
       <c r="R12" t="n">
         <v>1813.961680532376</v>
@@ -5153,7 +5153,7 @@
         <v>1611.78667446426</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.079680878288</v>
+        <v>1427.079680878289</v>
       </c>
       <c r="V12" t="n">
         <v>1222.106542017555</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>624.103478946849</v>
+        <v>809.9644927725033</v>
       </c>
       <c r="C13" t="n">
-        <v>452.130915825765</v>
+        <v>637.9919296514192</v>
       </c>
       <c r="D13" t="n">
-        <v>452.130915825765</v>
+        <v>474.6751567781899</v>
       </c>
       <c r="E13" t="n">
-        <v>285.9227099786185</v>
+        <v>308.4669509310435</v>
       </c>
       <c r="F13" t="n">
         <v>201.7562895627476</v>
@@ -5199,22 +5199,22 @@
         <v>36.27923361064751</v>
       </c>
       <c r="J13" t="n">
-        <v>69.89146351344729</v>
+        <v>147.8131801616682</v>
       </c>
       <c r="K13" t="n">
-        <v>385.2276878666812</v>
+        <v>463.1494045149021</v>
       </c>
       <c r="L13" t="n">
-        <v>834.1832037984441</v>
+        <v>912.104920446665</v>
       </c>
       <c r="M13" t="n">
-        <v>1283.138719730207</v>
+        <v>1361.060436378428</v>
       </c>
       <c r="N13" t="n">
-        <v>1618.265248240184</v>
+        <v>1457.492072412594</v>
       </c>
       <c r="O13" t="n">
-        <v>1704.034595081198</v>
+        <v>1543.261419253608</v>
       </c>
       <c r="P13" t="n">
         <v>1774.327518106862</v>
@@ -5226,25 +5226,25 @@
         <v>1801.990825634464</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.447547842518</v>
+        <v>1801.990825634464</v>
       </c>
       <c r="T13" t="n">
-        <v>1405.44055883409</v>
+        <v>1561.983836626036</v>
       </c>
       <c r="U13" t="n">
-        <v>1125.298651084594</v>
+        <v>1281.84192887654</v>
       </c>
       <c r="V13" t="n">
-        <v>1125.298651084594</v>
+        <v>1000.130461484569</v>
       </c>
       <c r="W13" t="n">
-        <v>850.446247257107</v>
+        <v>1000.130461484569</v>
       </c>
       <c r="X13" t="n">
-        <v>850.446247257107</v>
+        <v>1000.130461484569</v>
       </c>
       <c r="Y13" t="n">
-        <v>624.103478946849</v>
+        <v>1000.130461484569</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>713.6610525550338</v>
+        <v>864.8565519455667</v>
       </c>
       <c r="C14" t="n">
-        <v>713.6610525550338</v>
+        <v>864.8565519455667</v>
       </c>
       <c r="D14" t="n">
-        <v>438.8796120934242</v>
+        <v>864.8565519455667</v>
       </c>
       <c r="E14" t="n">
         <v>438.8796120934242</v>
@@ -5299,7 +5299,7 @@
         <v>1582.90127408365</v>
       </c>
       <c r="Q14" t="n">
-        <v>1741.599829975285</v>
+        <v>1731.159759980861</v>
       </c>
       <c r="R14" t="n">
         <v>1813.961680532376</v>
@@ -5311,19 +5311,19 @@
         <v>1749.21464640968</v>
       </c>
       <c r="U14" t="n">
-        <v>1490.998831720314</v>
+        <v>1634.06596565157</v>
       </c>
       <c r="V14" t="n">
-        <v>1133.509416846564</v>
+        <v>1276.576550777819</v>
       </c>
       <c r="W14" t="n">
-        <v>1133.509416846564</v>
+        <v>1276.576550777819</v>
       </c>
       <c r="X14" t="n">
-        <v>1133.509416846564</v>
+        <v>864.8565519455667</v>
       </c>
       <c r="Y14" t="n">
-        <v>1133.509416846564</v>
+        <v>864.8565519455667</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>36.27923361064751</v>
       </c>
       <c r="I15" t="n">
-        <v>51.66049294899003</v>
+        <v>75.11779879340187</v>
       </c>
       <c r="J15" t="n">
-        <v>117.397323715572</v>
+        <v>140.8546295599839</v>
       </c>
       <c r="K15" t="n">
-        <v>242.4521969218152</v>
+        <v>265.9095027662271</v>
       </c>
       <c r="L15" t="n">
-        <v>691.4077128535781</v>
+        <v>441.5886254596251</v>
       </c>
       <c r="M15" t="n">
-        <v>899.5624538658731</v>
+        <v>649.74336647192</v>
       </c>
       <c r="N15" t="n">
-        <v>1115.56783628781</v>
+        <v>865.7487488938565</v>
       </c>
       <c r="O15" t="n">
-        <v>1309.559844407274</v>
+        <v>1059.740757013321</v>
       </c>
       <c r="P15" t="n">
-        <v>1686.921953890431</v>
+        <v>1508.696272945084</v>
       </c>
       <c r="Q15" t="n">
-        <v>1780.788437489489</v>
+        <v>1675.332937204583</v>
       </c>
       <c r="R15" t="n">
         <v>1813.961680532375</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.3874970854015</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="C16" t="n">
-        <v>441.3874970854015</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="D16" t="n">
-        <v>278.0707242121722</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="E16" t="n">
-        <v>278.0707242121722</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="F16" t="n">
-        <v>278.0707242121722</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="G16" t="n">
-        <v>112.5936682600721</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="H16" t="n">
-        <v>112.5936682600721</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="I16" t="n">
         <v>36.27923361064751</v>
@@ -5442,13 +5442,13 @@
         <v>463.1494045149021</v>
       </c>
       <c r="L16" t="n">
-        <v>555.0942941080269</v>
+        <v>912.104920446665</v>
       </c>
       <c r="M16" t="n">
-        <v>1004.04981003979</v>
+        <v>1361.060436378428</v>
       </c>
       <c r="N16" t="n">
-        <v>1453.005325971553</v>
+        <v>1466.891750862285</v>
       </c>
       <c r="O16" t="n">
         <v>1552.661097703299</v>
@@ -5460,28 +5460,28 @@
         <v>1813.961680532376</v>
       </c>
       <c r="R16" t="n">
-        <v>1801.990825634464</v>
+        <v>1813.961680532376</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.447547842518</v>
+        <v>1772.064635164548</v>
       </c>
       <c r="T16" t="n">
-        <v>1405.44055883409</v>
+        <v>1532.05764615612</v>
       </c>
       <c r="U16" t="n">
-        <v>1125.298651084594</v>
+        <v>1251.915738406624</v>
       </c>
       <c r="V16" t="n">
-        <v>843.5871836926228</v>
+        <v>970.2042710146529</v>
       </c>
       <c r="W16" t="n">
-        <v>667.7302653956594</v>
+        <v>695.351867187166</v>
       </c>
       <c r="X16" t="n">
-        <v>667.7302653956594</v>
+        <v>452.7879706329711</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.3874970854015</v>
+        <v>226.4452023227132</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1165.91844670995</v>
+        <v>1696.515615784919</v>
       </c>
       <c r="C17" t="n">
-        <v>1165.91844670995</v>
+        <v>1269.614885798219</v>
       </c>
       <c r="D17" t="n">
-        <v>742.6258258949501</v>
+        <v>1269.614885798219</v>
       </c>
       <c r="E17" t="n">
-        <v>742.6258258949501</v>
+        <v>843.6379459460762</v>
       </c>
       <c r="F17" t="n">
-        <v>742.6258258949501</v>
+        <v>418.5137641354764</v>
       </c>
       <c r="G17" t="n">
-        <v>340.0254474121734</v>
+        <v>59.96336566153013</v>
       </c>
       <c r="H17" t="n">
         <v>59.96336566153013</v>
@@ -5515,52 +5515,52 @@
         <v>91.45764508723943</v>
       </c>
       <c r="J17" t="n">
-        <v>206.9638945736726</v>
+        <v>598.6931132812988</v>
       </c>
       <c r="K17" t="n">
-        <v>388.3228298624874</v>
+        <v>915.1978047096727</v>
       </c>
       <c r="L17" t="n">
-        <v>1130.369479923923</v>
+        <v>1146.186137091418</v>
       </c>
       <c r="M17" t="n">
-        <v>1392.534789970107</v>
+        <v>1408.351447137602</v>
       </c>
       <c r="N17" t="n">
-        <v>2134.581440031543</v>
+        <v>1675.508609847288</v>
       </c>
       <c r="O17" t="n">
-        <v>2569.698128596594</v>
+        <v>1925.610562956108</v>
       </c>
       <c r="P17" t="n">
-        <v>2777.547946622205</v>
+        <v>2133.460380981718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2925.806432519415</v>
+        <v>2773.567774241665</v>
       </c>
       <c r="R17" t="n">
         <v>2998.168283076506</v>
       </c>
       <c r="S17" t="n">
-        <v>2998.168283076506</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="T17" t="n">
-        <v>2784.853801014973</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="U17" t="n">
-        <v>2526.637986325607</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="V17" t="n">
-        <v>2379.367065286965</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="W17" t="n">
-        <v>1982.975715587312</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="X17" t="n">
-        <v>1571.255716755059</v>
+        <v>2521.701250121558</v>
       </c>
       <c r="Y17" t="n">
-        <v>1165.91844670995</v>
+        <v>2116.363980076449</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>59.96336566153013</v>
       </c>
       <c r="I18" t="n">
-        <v>75.34462499987265</v>
+        <v>98.80193084428448</v>
       </c>
       <c r="J18" t="n">
-        <v>141.0814557664547</v>
+        <v>456.6412540804575</v>
       </c>
       <c r="K18" t="n">
-        <v>266.1363289726978</v>
+        <v>581.6961272867007</v>
       </c>
       <c r="L18" t="n">
-        <v>939.8998884987374</v>
+        <v>757.3752499800987</v>
       </c>
       <c r="M18" t="n">
-        <v>1148.054629511032</v>
+        <v>1042.599129226126</v>
       </c>
       <c r="N18" t="n">
-        <v>1364.060011932969</v>
+        <v>1258.604511648063</v>
       </c>
       <c r="O18" t="n">
-        <v>1558.052020052433</v>
+        <v>1452.596519767527</v>
       </c>
       <c r="P18" t="n">
-        <v>1710.606085941314</v>
+        <v>1605.150585656408</v>
       </c>
       <c r="Q18" t="n">
-        <v>1804.472569540372</v>
+        <v>1699.017069255466</v>
       </c>
       <c r="R18" t="n">
         <v>1837.645812583258</v>
@@ -5667,7 +5667,7 @@
         <v>255.0323768137483</v>
       </c>
       <c r="H19" t="n">
-        <v>136.2778003109547</v>
+        <v>118.1702506045123</v>
       </c>
       <c r="I19" t="n">
         <v>59.96336566153013</v>
@@ -5676,16 +5676,16 @@
         <v>171.4973122125508</v>
       </c>
       <c r="K19" t="n">
-        <v>486.8335365657838</v>
+        <v>486.8335365657847</v>
       </c>
       <c r="L19" t="n">
-        <v>955.1673197500737</v>
+        <v>955.1673197500746</v>
       </c>
       <c r="M19" t="n">
-        <v>1466.175265653858</v>
+        <v>1466.175265653859</v>
       </c>
       <c r="N19" t="n">
-        <v>1960.639824529904</v>
+        <v>1960.639824529905</v>
       </c>
       <c r="O19" t="n">
         <v>2424.111495674122</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1593.726947557692</v>
+        <v>1888.538403768495</v>
       </c>
       <c r="C20" t="n">
-        <v>1593.726947557692</v>
+        <v>1461.637673781795</v>
       </c>
       <c r="D20" t="n">
-        <v>1593.726947557692</v>
+        <v>1038.345052966795</v>
       </c>
       <c r="E20" t="n">
-        <v>1167.75000770555</v>
+        <v>612.3681131146526</v>
       </c>
       <c r="F20" t="n">
-        <v>742.6258258949501</v>
+        <v>462.5637441443068</v>
       </c>
       <c r="G20" t="n">
-        <v>340.0254474121734</v>
+        <v>59.96336566153013</v>
       </c>
       <c r="H20" t="n">
         <v>59.96336566153013</v>
@@ -5752,28 +5752,28 @@
         <v>91.45764508723943</v>
       </c>
       <c r="J20" t="n">
-        <v>206.9638945736726</v>
+        <v>598.6931132812988</v>
       </c>
       <c r="K20" t="n">
-        <v>388.3228298624874</v>
+        <v>780.0520485701136</v>
       </c>
       <c r="L20" t="n">
-        <v>619.3111622442323</v>
+        <v>1011.040380951858</v>
       </c>
       <c r="M20" t="n">
-        <v>881.476472290417</v>
+        <v>1273.205690998043</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.454646499334</v>
+        <v>1540.362853707729</v>
       </c>
       <c r="O20" t="n">
-        <v>2035.501296560769</v>
+        <v>1790.464806816548</v>
       </c>
       <c r="P20" t="n">
-        <v>2777.547946622205</v>
+        <v>2133.460380981718</v>
       </c>
       <c r="Q20" t="n">
-        <v>2925.806432519415</v>
+        <v>2773.567774241665</v>
       </c>
       <c r="R20" t="n">
         <v>2998.168283076506</v>
@@ -5782,22 +5782,22 @@
         <v>2933.421248953811</v>
       </c>
       <c r="T20" t="n">
-        <v>2933.421248953811</v>
+        <v>2720.106766892277</v>
       </c>
       <c r="U20" t="n">
-        <v>2675.205434264445</v>
+        <v>2720.106766892277</v>
       </c>
       <c r="V20" t="n">
-        <v>2675.205434264445</v>
+        <v>2720.106766892277</v>
       </c>
       <c r="W20" t="n">
-        <v>2675.205434264445</v>
+        <v>2720.106766892277</v>
       </c>
       <c r="X20" t="n">
-        <v>2263.485435432192</v>
+        <v>2308.386768060025</v>
       </c>
       <c r="Y20" t="n">
-        <v>1858.148165387083</v>
+        <v>2308.386768060025</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>59.96336566153013</v>
       </c>
       <c r="I21" t="n">
-        <v>75.34462499987265</v>
+        <v>98.80193084428448</v>
       </c>
       <c r="J21" t="n">
-        <v>141.0814557664547</v>
+        <v>456.6412540804575</v>
       </c>
       <c r="K21" t="n">
-        <v>266.1363289726978</v>
+        <v>581.6961272867007</v>
       </c>
       <c r="L21" t="n">
-        <v>441.8154516660958</v>
+        <v>757.3752499800987</v>
       </c>
       <c r="M21" t="n">
-        <v>649.9701926783907</v>
+        <v>965.5299909923937</v>
       </c>
       <c r="N21" t="n">
-        <v>865.9755751003272</v>
+        <v>1181.53537341433</v>
       </c>
       <c r="O21" t="n">
-        <v>1059.967583219791</v>
+        <v>1375.527381533794</v>
       </c>
       <c r="P21" t="n">
-        <v>1710.606085941314</v>
+        <v>1528.081447422675</v>
       </c>
       <c r="Q21" t="n">
-        <v>1804.472569540372</v>
+        <v>1699.017069255466</v>
       </c>
       <c r="R21" t="n">
         <v>1837.645812583258</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1093.868748832748</v>
+        <v>1111.97629853919</v>
       </c>
       <c r="C22" t="n">
-        <v>921.8961857116637</v>
+        <v>940.0037354181061</v>
       </c>
       <c r="D22" t="n">
-        <v>758.5794128384345</v>
+        <v>776.6869625448768</v>
       </c>
       <c r="E22" t="n">
-        <v>592.371206991288</v>
+        <v>610.4787566977303</v>
       </c>
       <c r="F22" t="n">
-        <v>420.5094327658484</v>
+        <v>438.6169824722907</v>
       </c>
       <c r="G22" t="n">
-        <v>255.0323768137483</v>
+        <v>273.1399265201906</v>
       </c>
       <c r="H22" t="n">
         <v>136.2778003109547</v>
@@ -5934,28 +5934,28 @@
         <v>2998.168283076506</v>
       </c>
       <c r="R22" t="n">
-        <v>2986.197428178595</v>
+        <v>2998.168283076506</v>
       </c>
       <c r="S22" t="n">
-        <v>2829.654150386649</v>
+        <v>2847.761700093091</v>
       </c>
       <c r="T22" t="n">
-        <v>2589.64716137822</v>
+        <v>2607.754711084662</v>
       </c>
       <c r="U22" t="n">
-        <v>2309.505253628724</v>
+        <v>2327.612803335167</v>
       </c>
       <c r="V22" t="n">
-        <v>2027.793786236753</v>
+        <v>2045.901335943196</v>
       </c>
       <c r="W22" t="n">
-        <v>1752.941382409266</v>
+        <v>1771.048932115709</v>
       </c>
       <c r="X22" t="n">
-        <v>1510.377485855071</v>
+        <v>1528.485035561514</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.034717544813</v>
+        <v>1302.142267251256</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.066234992991</v>
+        <v>2349.813269115687</v>
       </c>
       <c r="C23" t="n">
-        <v>1858.165505006291</v>
+        <v>2053.29880198334</v>
       </c>
       <c r="D23" t="n">
-        <v>1434.872884191291</v>
+        <v>1630.00618116834</v>
       </c>
       <c r="E23" t="n">
-        <v>1008.895944339149</v>
+        <v>1204.029241316197</v>
       </c>
       <c r="F23" t="n">
-        <v>583.7717625285489</v>
+        <v>778.9050595055976</v>
       </c>
       <c r="G23" t="n">
-        <v>181.1713840457722</v>
+        <v>376.3046810228209</v>
       </c>
       <c r="H23" t="n">
         <v>96.24259927217763</v>
@@ -5989,52 +5989,52 @@
         <v>127.7368786978869</v>
       </c>
       <c r="J23" t="n">
-        <v>243.2431281843201</v>
+        <v>634.9723468919462</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6020634731349</v>
+        <v>1567.246544943121</v>
       </c>
       <c r="L23" t="n">
-        <v>1006.074636683697</v>
+        <v>1798.234877324866</v>
       </c>
       <c r="M23" t="n">
-        <v>2197.076802676895</v>
+        <v>2060.400187371051</v>
       </c>
       <c r="N23" t="n">
-        <v>3388.078968670093</v>
+        <v>2327.557350080736</v>
       </c>
       <c r="O23" t="n">
-        <v>3638.180921778913</v>
+        <v>2994.093356138426</v>
       </c>
       <c r="P23" t="n">
-        <v>4591.50962715458</v>
+        <v>3947.422061514093</v>
       </c>
       <c r="Q23" t="n">
-        <v>4739.768113051791</v>
+        <v>4587.52945477404</v>
       </c>
       <c r="R23" t="n">
         <v>4812.129963608882</v>
       </c>
       <c r="S23" t="n">
-        <v>4747.382929486186</v>
+        <v>4812.129963608882</v>
       </c>
       <c r="T23" t="n">
-        <v>4534.068447424653</v>
+        <v>4598.815481547348</v>
       </c>
       <c r="U23" t="n">
-        <v>4275.852632735287</v>
+        <v>4340.599666857983</v>
       </c>
       <c r="V23" t="n">
-        <v>3918.363217861536</v>
+        <v>3983.110251984232</v>
       </c>
       <c r="W23" t="n">
-        <v>3521.971868161883</v>
+        <v>3586.71890228458</v>
       </c>
       <c r="X23" t="n">
-        <v>3110.251869329631</v>
+        <v>3174.998903452327</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.914599284521</v>
+        <v>2769.661633407217</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>96.24259927217763</v>
       </c>
       <c r="I24" t="n">
-        <v>111.6238586105201</v>
+        <v>135.081164454932</v>
       </c>
       <c r="J24" t="n">
-        <v>177.3606893771021</v>
+        <v>492.9204876911051</v>
       </c>
       <c r="K24" t="n">
-        <v>302.4155625833453</v>
+        <v>617.9753608973482</v>
       </c>
       <c r="L24" t="n">
-        <v>478.0946852767432</v>
+        <v>793.6544835907462</v>
       </c>
       <c r="M24" t="n">
-        <v>686.2494262890382</v>
+        <v>1001.809224603041</v>
       </c>
       <c r="N24" t="n">
-        <v>902.2548087109747</v>
+        <v>1217.814607024978</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.666208894212</v>
+        <v>1411.806615144442</v>
       </c>
       <c r="P24" t="n">
-        <v>1260.220274783093</v>
+        <v>1564.360681033323</v>
       </c>
       <c r="Q24" t="n">
-        <v>1840.751803151019</v>
+        <v>1735.296302866113</v>
       </c>
       <c r="R24" t="n">
         <v>1873.925046193905</v>
@@ -6138,10 +6138,10 @@
         <v>456.7886663764967</v>
       </c>
       <c r="G25" t="n">
-        <v>309.4191601308381</v>
+        <v>291.3116104243966</v>
       </c>
       <c r="H25" t="n">
-        <v>172.5570339216022</v>
+        <v>154.4494842151607</v>
       </c>
       <c r="I25" t="n">
         <v>96.24259927217763</v>
@@ -6205,10 +6205,10 @@
         <v>2172.600994461712</v>
       </c>
       <c r="C26" t="n">
-        <v>1745.700264475012</v>
+        <v>2051.049497172714</v>
       </c>
       <c r="D26" t="n">
-        <v>1322.407643660012</v>
+        <v>1627.756876357714</v>
       </c>
       <c r="E26" t="n">
         <v>1201.779936505572</v>
@@ -6226,28 +6226,28 @@
         <v>125.4875738872614</v>
       </c>
       <c r="J26" t="n">
-        <v>240.9938233736946</v>
+        <v>632.7230420813207</v>
       </c>
       <c r="K26" t="n">
-        <v>422.3527586625094</v>
+        <v>1564.997240132496</v>
       </c>
       <c r="L26" t="n">
-        <v>1585.519777624216</v>
+        <v>1795.985572514241</v>
       </c>
       <c r="M26" t="n">
-        <v>2748.686796585923</v>
+        <v>2058.150882560426</v>
       </c>
       <c r="N26" t="n">
-        <v>3911.853815547629</v>
+        <v>2325.308045270111</v>
       </c>
       <c r="O26" t="n">
-        <v>4161.955768656449</v>
+        <v>2881.628115607147</v>
       </c>
       <c r="P26" t="n">
-        <v>4369.80558668206</v>
+        <v>3834.956820982814</v>
       </c>
       <c r="Q26" t="n">
-        <v>4518.064072579272</v>
+        <v>4475.06421424276</v>
       </c>
       <c r="R26" t="n">
         <v>4699.664723077603</v>
@@ -6302,31 +6302,31 @@
         <v>93.99329446155205</v>
       </c>
       <c r="I27" t="n">
-        <v>109.3745537998946</v>
+        <v>132.8318596443064</v>
       </c>
       <c r="J27" t="n">
-        <v>175.1113845664766</v>
+        <v>490.6711828804795</v>
       </c>
       <c r="K27" t="n">
-        <v>798.2506946053613</v>
+        <v>692.7951943204555</v>
       </c>
       <c r="L27" t="n">
-        <v>973.9298172987593</v>
+        <v>868.4743170138535</v>
       </c>
       <c r="M27" t="n">
-        <v>1182.084558311054</v>
+        <v>1076.629058026148</v>
       </c>
       <c r="N27" t="n">
-        <v>1398.089940732991</v>
+        <v>1292.634440448085</v>
       </c>
       <c r="O27" t="n">
-        <v>1592.081948852455</v>
+        <v>1486.626448567549</v>
       </c>
       <c r="P27" t="n">
-        <v>1744.636014741336</v>
+        <v>1639.18051445643</v>
       </c>
       <c r="Q27" t="n">
-        <v>1838.502498340394</v>
+        <v>1733.046998055488</v>
       </c>
       <c r="R27" t="n">
         <v>1871.67574138328</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1127.898677632771</v>
+        <v>1146.006227339212</v>
       </c>
       <c r="C28" t="n">
-        <v>955.9261145116868</v>
+        <v>974.0336642181279</v>
       </c>
       <c r="D28" t="n">
-        <v>792.6093416384575</v>
+        <v>810.7168913448986</v>
       </c>
       <c r="E28" t="n">
-        <v>626.401135791311</v>
+        <v>644.5086854977521</v>
       </c>
       <c r="F28" t="n">
-        <v>454.5393615658714</v>
+        <v>472.6469112723126</v>
       </c>
       <c r="G28" t="n">
-        <v>289.0623056137713</v>
+        <v>307.1698553202125</v>
       </c>
       <c r="H28" t="n">
-        <v>152.2001794045354</v>
+        <v>170.3077291109766</v>
       </c>
       <c r="I28" t="n">
         <v>93.99329446155205</v>
@@ -6408,28 +6408,28 @@
         <v>3032.198211876529</v>
       </c>
       <c r="R28" t="n">
-        <v>3020.227356978618</v>
+        <v>3032.198211876529</v>
       </c>
       <c r="S28" t="n">
-        <v>2863.684079186672</v>
+        <v>2881.791628893112</v>
       </c>
       <c r="T28" t="n">
-        <v>2623.677090178243</v>
+        <v>2641.784639884684</v>
       </c>
       <c r="U28" t="n">
-        <v>2343.535182428747</v>
+        <v>2361.642732135188</v>
       </c>
       <c r="V28" t="n">
-        <v>2061.823715036776</v>
+        <v>2079.931264743217</v>
       </c>
       <c r="W28" t="n">
-        <v>1786.971311209289</v>
+        <v>1805.07886091573</v>
       </c>
       <c r="X28" t="n">
-        <v>1544.407414655094</v>
+        <v>1562.514964361535</v>
       </c>
       <c r="Y28" t="n">
-        <v>1318.064646344837</v>
+        <v>1336.172196051278</v>
       </c>
     </row>
     <row r="29">
@@ -6442,10 +6442,10 @@
         <v>2172.600994461712</v>
       </c>
       <c r="C29" t="n">
-        <v>1745.700264475012</v>
+        <v>2051.049497172714</v>
       </c>
       <c r="D29" t="n">
-        <v>1322.407643660012</v>
+        <v>1627.756876357714</v>
       </c>
       <c r="E29" t="n">
         <v>1201.779936505572</v>
@@ -6463,28 +6463,28 @@
         <v>125.4875738872614</v>
       </c>
       <c r="J29" t="n">
-        <v>240.9938233736946</v>
+        <v>632.7230420813207</v>
       </c>
       <c r="K29" t="n">
-        <v>939.0366707807498</v>
+        <v>1564.997240132496</v>
       </c>
       <c r="L29" t="n">
-        <v>2102.203689742456</v>
+        <v>1795.985572514241</v>
       </c>
       <c r="M29" t="n">
-        <v>2364.368999788641</v>
+        <v>2058.150882560426</v>
       </c>
       <c r="N29" t="n">
-        <v>2631.526162498327</v>
+        <v>2325.308045270111</v>
       </c>
       <c r="O29" t="n">
-        <v>2881.628115607147</v>
+        <v>3457.571698292207</v>
       </c>
       <c r="P29" t="n">
-        <v>3834.956820982814</v>
+        <v>4410.900403667874</v>
       </c>
       <c r="Q29" t="n">
-        <v>4475.06421424276</v>
+        <v>4559.158889565086</v>
       </c>
       <c r="R29" t="n">
         <v>4699.664723077603</v>
@@ -6539,31 +6539,31 @@
         <v>93.99329446155205</v>
       </c>
       <c r="I30" t="n">
-        <v>109.3745537998946</v>
+        <v>132.8318596443064</v>
       </c>
       <c r="J30" t="n">
-        <v>175.1113845664766</v>
+        <v>490.6711828804795</v>
       </c>
       <c r="K30" t="n">
-        <v>300.1662577727197</v>
+        <v>692.7951943204555</v>
       </c>
       <c r="L30" t="n">
-        <v>475.8453804661177</v>
+        <v>868.4743170138535</v>
       </c>
       <c r="M30" t="n">
-        <v>684.0001214784127</v>
+        <v>1076.629058026148</v>
       </c>
       <c r="N30" t="n">
-        <v>900.0055039003491</v>
+        <v>1292.634440448085</v>
       </c>
       <c r="O30" t="n">
-        <v>1093.997512019813</v>
+        <v>1486.626448567549</v>
       </c>
       <c r="P30" t="n">
-        <v>1744.636014741336</v>
+        <v>1639.18051445643</v>
       </c>
       <c r="Q30" t="n">
-        <v>1838.502498340394</v>
+        <v>1733.046998055488</v>
       </c>
       <c r="R30" t="n">
         <v>1871.67574138328</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1127.898677632771</v>
+        <v>1139.869532530682</v>
       </c>
       <c r="C31" t="n">
-        <v>955.9261145116868</v>
+        <v>967.8969694095979</v>
       </c>
       <c r="D31" t="n">
-        <v>792.6093416384575</v>
+        <v>804.5801965363686</v>
       </c>
       <c r="E31" t="n">
-        <v>626.401135791311</v>
+        <v>638.3719906892221</v>
       </c>
       <c r="F31" t="n">
-        <v>454.5393615658714</v>
+        <v>466.5102164637825</v>
       </c>
       <c r="G31" t="n">
-        <v>289.0623056137713</v>
+        <v>307.1698553202125</v>
       </c>
       <c r="H31" t="n">
         <v>170.3077291109766</v>
@@ -6645,28 +6645,28 @@
         <v>3032.198211876529</v>
       </c>
       <c r="R31" t="n">
-        <v>3020.227356978618</v>
+        <v>3032.198211876529</v>
       </c>
       <c r="S31" t="n">
-        <v>2863.684079186672</v>
+        <v>2875.654934084583</v>
       </c>
       <c r="T31" t="n">
-        <v>2623.677090178243</v>
+        <v>2635.647945076154</v>
       </c>
       <c r="U31" t="n">
-        <v>2343.535182428747</v>
+        <v>2355.506037326658</v>
       </c>
       <c r="V31" t="n">
-        <v>2061.823715036776</v>
+        <v>2073.794569934687</v>
       </c>
       <c r="W31" t="n">
-        <v>1786.971311209289</v>
+        <v>1798.9421661072</v>
       </c>
       <c r="X31" t="n">
-        <v>1544.407414655094</v>
+        <v>1556.378269553006</v>
       </c>
       <c r="Y31" t="n">
-        <v>1318.064646344837</v>
+        <v>1330.035501242748</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>896.4307038078697</v>
       </c>
       <c r="F32" t="n">
-        <v>776.6557546949721</v>
+        <v>496.5936729443288</v>
       </c>
       <c r="G32" t="n">
-        <v>374.0553762121954</v>
+        <v>93.99329446155205</v>
       </c>
       <c r="H32" t="n">
         <v>93.99329446155205</v>
@@ -6700,28 +6700,28 @@
         <v>125.4875738872614</v>
       </c>
       <c r="J32" t="n">
-        <v>240.9938233736946</v>
+        <v>632.7230420813207</v>
       </c>
       <c r="K32" t="n">
-        <v>422.3527586625094</v>
+        <v>989.0536574474359</v>
       </c>
       <c r="L32" t="n">
-        <v>1585.519777624216</v>
+        <v>1220.041989829181</v>
       </c>
       <c r="M32" t="n">
-        <v>1847.685087670401</v>
+        <v>1482.207299875365</v>
       </c>
       <c r="N32" t="n">
-        <v>3010.852106632107</v>
+        <v>1749.364462585051</v>
       </c>
       <c r="O32" t="n">
-        <v>4143.115759654203</v>
+        <v>2881.628115607147</v>
       </c>
       <c r="P32" t="n">
-        <v>4479.044386623301</v>
+        <v>3834.956820982814</v>
       </c>
       <c r="Q32" t="n">
-        <v>4627.302872520512</v>
+        <v>4475.06421424276</v>
       </c>
       <c r="R32" t="n">
         <v>4699.664723077603</v>
@@ -6776,25 +6776,25 @@
         <v>93.99329446155205</v>
       </c>
       <c r="I33" t="n">
-        <v>109.3745537998946</v>
+        <v>132.8318596443064</v>
       </c>
       <c r="J33" t="n">
-        <v>175.1113845664766</v>
+        <v>490.6711828804795</v>
       </c>
       <c r="K33" t="n">
-        <v>300.1662577727197</v>
+        <v>615.7260560867227</v>
       </c>
       <c r="L33" t="n">
-        <v>475.8453804661177</v>
+        <v>791.4051787801207</v>
       </c>
       <c r="M33" t="n">
-        <v>684.0001214784127</v>
+        <v>999.5599197924156</v>
       </c>
       <c r="N33" t="n">
-        <v>900.0055039003491</v>
+        <v>1292.634440448085</v>
       </c>
       <c r="O33" t="n">
-        <v>1093.997512019813</v>
+        <v>1486.626448567549</v>
       </c>
       <c r="P33" t="n">
         <v>1639.18051445643</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.898677632771</v>
+        <v>1146.006227339212</v>
       </c>
       <c r="C34" t="n">
-        <v>955.9261145116868</v>
+        <v>974.0336642181279</v>
       </c>
       <c r="D34" t="n">
-        <v>792.6093416384575</v>
+        <v>810.7168913448986</v>
       </c>
       <c r="E34" t="n">
-        <v>626.401135791311</v>
+        <v>644.5086854977521</v>
       </c>
       <c r="F34" t="n">
-        <v>454.5393615658714</v>
+        <v>472.6469112723126</v>
       </c>
       <c r="G34" t="n">
-        <v>289.0623056137713</v>
+        <v>307.1698553202125</v>
       </c>
       <c r="H34" t="n">
-        <v>152.2001794045354</v>
+        <v>170.3077291109766</v>
       </c>
       <c r="I34" t="n">
         <v>93.99329446155205</v>
@@ -6888,22 +6888,22 @@
         <v>2863.684079186672</v>
       </c>
       <c r="T34" t="n">
-        <v>2623.677090178243</v>
+        <v>2641.784639884684</v>
       </c>
       <c r="U34" t="n">
-        <v>2343.535182428747</v>
+        <v>2361.642732135188</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.823715036776</v>
+        <v>2079.931264743217</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.971311209289</v>
+        <v>1805.07886091573</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.407414655094</v>
+        <v>1562.514964361535</v>
       </c>
       <c r="Y34" t="n">
-        <v>1318.064646344837</v>
+        <v>1336.172196051278</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1334.357108139272</v>
+        <v>1296.290188797255</v>
       </c>
       <c r="C35" t="n">
-        <v>1334.357108139272</v>
+        <v>869.3894588105557</v>
       </c>
       <c r="D35" t="n">
-        <v>911.0644873242724</v>
+        <v>446.0968379955559</v>
       </c>
       <c r="E35" t="n">
-        <v>485.0875474721299</v>
+        <v>446.0968379955559</v>
       </c>
       <c r="F35" t="n">
-        <v>59.96336566153013</v>
+        <v>446.0968379955559</v>
       </c>
       <c r="G35" t="n">
         <v>59.96336566153013</v>
@@ -6937,28 +6937,28 @@
         <v>91.45764508723943</v>
       </c>
       <c r="J35" t="n">
-        <v>206.9638945736726</v>
+        <v>598.6931132812988</v>
       </c>
       <c r="K35" t="n">
-        <v>388.3228298624874</v>
+        <v>780.0520485701136</v>
       </c>
       <c r="L35" t="n">
-        <v>619.3111622442323</v>
+        <v>1011.040380951858</v>
       </c>
       <c r="M35" t="n">
-        <v>1361.357812305667</v>
+        <v>1273.205690998043</v>
       </c>
       <c r="N35" t="n">
-        <v>1628.514975015353</v>
+        <v>1540.362853707729</v>
       </c>
       <c r="O35" t="n">
-        <v>2077.849221233858</v>
+        <v>1790.464806816548</v>
       </c>
       <c r="P35" t="n">
-        <v>2285.699039259469</v>
+        <v>2133.460380981718</v>
       </c>
       <c r="Q35" t="n">
-        <v>2925.806432519415</v>
+        <v>2773.567774241665</v>
       </c>
       <c r="R35" t="n">
         <v>2998.168283076506</v>
@@ -6967,22 +6967,22 @@
         <v>2933.421248953811</v>
       </c>
       <c r="T35" t="n">
-        <v>2933.421248953811</v>
+        <v>2720.106766892277</v>
       </c>
       <c r="U35" t="n">
-        <v>2919.806235836459</v>
+        <v>2461.890952202912</v>
       </c>
       <c r="V35" t="n">
-        <v>2562.316820962708</v>
+        <v>2104.401537329161</v>
       </c>
       <c r="W35" t="n">
-        <v>2165.925471263055</v>
+        <v>1708.010187629508</v>
       </c>
       <c r="X35" t="n">
-        <v>1754.205472430802</v>
+        <v>1296.290188797255</v>
       </c>
       <c r="Y35" t="n">
-        <v>1754.205472430802</v>
+        <v>1296.290188797255</v>
       </c>
     </row>
     <row r="36">
@@ -7022,22 +7022,22 @@
         <v>266.1363289726978</v>
       </c>
       <c r="L36" t="n">
-        <v>441.8154516660958</v>
+        <v>939.8998884987374</v>
       </c>
       <c r="M36" t="n">
-        <v>649.9701926783907</v>
+        <v>1148.054629511032</v>
       </c>
       <c r="N36" t="n">
-        <v>865.9755751003272</v>
+        <v>1364.060011932969</v>
       </c>
       <c r="O36" t="n">
-        <v>1059.967583219791</v>
+        <v>1558.052020052433</v>
       </c>
       <c r="P36" t="n">
-        <v>1212.521649108672</v>
+        <v>1710.606085941314</v>
       </c>
       <c r="Q36" t="n">
-        <v>1699.017069255466</v>
+        <v>1804.472569540372</v>
       </c>
       <c r="R36" t="n">
         <v>1837.645812583258</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1093.868748832748</v>
+        <v>1111.97629853919</v>
       </c>
       <c r="C37" t="n">
-        <v>921.8961857116637</v>
+        <v>940.0037354181061</v>
       </c>
       <c r="D37" t="n">
-        <v>758.5794128384345</v>
+        <v>776.6869625448768</v>
       </c>
       <c r="E37" t="n">
-        <v>592.371206991288</v>
+        <v>610.4787566977303</v>
       </c>
       <c r="F37" t="n">
-        <v>420.5094327658484</v>
+        <v>438.6169824722907</v>
       </c>
       <c r="G37" t="n">
         <v>273.1399265201906</v>
@@ -7098,13 +7098,13 @@
         <v>171.4973122125508</v>
       </c>
       <c r="K37" t="n">
-        <v>486.8335365657838</v>
+        <v>486.8335365657847</v>
       </c>
       <c r="L37" t="n">
-        <v>955.1673197500737</v>
+        <v>955.1673197500745</v>
       </c>
       <c r="M37" t="n">
-        <v>1466.175265653858</v>
+        <v>1466.175265653859</v>
       </c>
       <c r="N37" t="n">
         <v>1960.639824529904</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2017.94335850725</v>
+        <v>2041.319919876615</v>
       </c>
       <c r="C38" t="n">
-        <v>1591.04262852055</v>
+        <v>1614.419189889915</v>
       </c>
       <c r="D38" t="n">
-        <v>1167.75000770555</v>
+        <v>1191.126569074916</v>
       </c>
       <c r="E38" t="n">
-        <v>1167.75000770555</v>
+        <v>765.1496292227732</v>
       </c>
       <c r="F38" t="n">
-        <v>742.6258258949501</v>
+        <v>340.0254474121734</v>
       </c>
       <c r="G38" t="n">
         <v>340.0254474121734</v>
@@ -7174,28 +7174,28 @@
         <v>91.45764508723943</v>
       </c>
       <c r="J38" t="n">
-        <v>206.9638945736726</v>
+        <v>598.6931132812988</v>
       </c>
       <c r="K38" t="n">
-        <v>949.0105446351079</v>
+        <v>780.0520485701136</v>
       </c>
       <c r="L38" t="n">
-        <v>1691.057194696543</v>
+        <v>1011.040380951858</v>
       </c>
       <c r="M38" t="n">
-        <v>1953.222504742728</v>
+        <v>1273.205690998043</v>
       </c>
       <c r="N38" t="n">
-        <v>2220.379667452413</v>
+        <v>1540.362853707729</v>
       </c>
       <c r="O38" t="n">
-        <v>2470.481620561233</v>
+        <v>1790.464806816548</v>
       </c>
       <c r="P38" t="n">
-        <v>2678.331438586844</v>
+        <v>2133.460380981718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2925.806432519415</v>
+        <v>2773.567774241665</v>
       </c>
       <c r="R38" t="n">
         <v>2998.168283076506</v>
@@ -7210,16 +7210,16 @@
         <v>2933.421248953811</v>
       </c>
       <c r="V38" t="n">
-        <v>2843.128992843889</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="W38" t="n">
-        <v>2843.128992843889</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="X38" t="n">
-        <v>2843.128992843889</v>
+        <v>2521.701250121558</v>
       </c>
       <c r="Y38" t="n">
-        <v>2437.79172279878</v>
+        <v>2116.363980076449</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>59.96336566153013</v>
       </c>
       <c r="I39" t="n">
-        <v>75.34462499987265</v>
+        <v>98.80193084428448</v>
       </c>
       <c r="J39" t="n">
-        <v>141.0814557664547</v>
+        <v>456.6412540804575</v>
       </c>
       <c r="K39" t="n">
-        <v>266.1363289726978</v>
+        <v>581.6961272867007</v>
       </c>
       <c r="L39" t="n">
-        <v>441.8154516660958</v>
+        <v>757.3752499800987</v>
       </c>
       <c r="M39" t="n">
-        <v>649.9701926783907</v>
+        <v>965.5299909923937</v>
       </c>
       <c r="N39" t="n">
-        <v>865.9755751003272</v>
+        <v>1181.53537341433</v>
       </c>
       <c r="O39" t="n">
-        <v>1059.967583219791</v>
+        <v>1375.527381533794</v>
       </c>
       <c r="P39" t="n">
-        <v>1710.606085941314</v>
+        <v>1605.150585656408</v>
       </c>
       <c r="Q39" t="n">
-        <v>1804.472569540372</v>
+        <v>1699.017069255466</v>
       </c>
       <c r="R39" t="n">
         <v>1837.645812583258</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1093.868748832748</v>
+        <v>1105.839603730659</v>
       </c>
       <c r="C40" t="n">
-        <v>940.0037354181061</v>
+        <v>933.8670406095748</v>
       </c>
       <c r="D40" t="n">
-        <v>776.6869625448768</v>
+        <v>770.5502677363455</v>
       </c>
       <c r="E40" t="n">
-        <v>610.4787566977303</v>
+        <v>604.342061889199</v>
       </c>
       <c r="F40" t="n">
-        <v>438.6169824722907</v>
+        <v>432.4802876637594</v>
       </c>
       <c r="G40" t="n">
-        <v>273.1399265201906</v>
+        <v>267.0032317116593</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2778003109547</v>
+        <v>130.1411055024234</v>
       </c>
       <c r="I40" t="n">
         <v>59.96336566153013</v>
@@ -7356,28 +7356,28 @@
         <v>2998.168283076506</v>
       </c>
       <c r="R40" t="n">
-        <v>2986.197428178595</v>
+        <v>2998.168283076506</v>
       </c>
       <c r="S40" t="n">
-        <v>2829.654150386649</v>
+        <v>2841.62500528456</v>
       </c>
       <c r="T40" t="n">
-        <v>2589.64716137822</v>
+        <v>2601.618016276131</v>
       </c>
       <c r="U40" t="n">
-        <v>2309.505253628724</v>
+        <v>2321.476108526635</v>
       </c>
       <c r="V40" t="n">
-        <v>2027.793786236753</v>
+        <v>2039.764641134664</v>
       </c>
       <c r="W40" t="n">
-        <v>1752.941382409266</v>
+        <v>1764.912237307177</v>
       </c>
       <c r="X40" t="n">
-        <v>1510.377485855071</v>
+        <v>1522.348340752982</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.034717544813</v>
+        <v>1296.005572442725</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>461.4034154212473</v>
+        <v>438.8796120934242</v>
       </c>
       <c r="C41" t="n">
-        <v>461.4034154212473</v>
+        <v>438.8796120934242</v>
       </c>
       <c r="D41" t="n">
-        <v>461.4034154212473</v>
+        <v>438.8796120934242</v>
       </c>
       <c r="E41" t="n">
-        <v>461.4034154212473</v>
+        <v>438.8796120934242</v>
       </c>
       <c r="F41" t="n">
-        <v>36.27923361064749</v>
+        <v>438.8796120934242</v>
       </c>
       <c r="G41" t="n">
         <v>36.27923361064749</v>
@@ -7438,25 +7438,25 @@
         <v>1813.961680532374</v>
       </c>
       <c r="S41" t="n">
-        <v>1749.214646409679</v>
+        <v>1813.961680532374</v>
       </c>
       <c r="T41" t="n">
-        <v>1535.900164348146</v>
+        <v>1600.647198470841</v>
       </c>
       <c r="U41" t="n">
-        <v>1535.900164348146</v>
+        <v>1342.431383781475</v>
       </c>
       <c r="V41" t="n">
-        <v>1178.410749474395</v>
+        <v>1342.431383781475</v>
       </c>
       <c r="W41" t="n">
-        <v>782.0193997747419</v>
+        <v>946.0400340818221</v>
       </c>
       <c r="X41" t="n">
-        <v>461.4034154212473</v>
+        <v>534.3200352495694</v>
       </c>
       <c r="Y41" t="n">
-        <v>461.4034154212473</v>
+        <v>534.3200352495694</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>36.27923361064749</v>
       </c>
       <c r="I42" t="n">
-        <v>51.66049294899</v>
+        <v>75.11779879340185</v>
       </c>
       <c r="J42" t="n">
-        <v>154.9372279306026</v>
+        <v>432.9571220295749</v>
       </c>
       <c r="K42" t="n">
-        <v>279.9921011368458</v>
+        <v>558.0119952358181</v>
       </c>
       <c r="L42" t="n">
-        <v>455.6712238302438</v>
+        <v>733.691117929216</v>
       </c>
       <c r="M42" t="n">
-        <v>663.8259648425387</v>
+        <v>941.845858941511</v>
       </c>
       <c r="N42" t="n">
-        <v>879.8313472644752</v>
+        <v>1157.851241363448</v>
       </c>
       <c r="O42" t="n">
-        <v>1073.823355383939</v>
+        <v>1351.843249482912</v>
       </c>
       <c r="P42" t="n">
-        <v>1226.37742127282</v>
+        <v>1581.466453605525</v>
       </c>
       <c r="Q42" t="n">
         <v>1675.332937204583</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>619.744778479825</v>
+        <v>1088.292166488307</v>
       </c>
       <c r="C43" t="n">
-        <v>447.7722153587409</v>
+        <v>916.3196033672234</v>
       </c>
       <c r="D43" t="n">
-        <v>284.4554424855116</v>
+        <v>753.0028304939941</v>
       </c>
       <c r="E43" t="n">
-        <v>284.4554424855116</v>
+        <v>586.7946246468476</v>
       </c>
       <c r="F43" t="n">
-        <v>112.593668260072</v>
+        <v>414.932850421408</v>
       </c>
       <c r="G43" t="n">
-        <v>112.593668260072</v>
+        <v>249.455794469308</v>
       </c>
       <c r="H43" t="n">
         <v>112.593668260072</v>
@@ -7572,22 +7572,22 @@
         <v>69.89146351344726</v>
       </c>
       <c r="K43" t="n">
-        <v>385.2276878666812</v>
+        <v>137.9450787526591</v>
       </c>
       <c r="L43" t="n">
-        <v>477.172577459806</v>
+        <v>357.1680472859089</v>
       </c>
       <c r="M43" t="n">
-        <v>926.1280933915687</v>
+        <v>806.1235632176715</v>
       </c>
       <c r="N43" t="n">
-        <v>1375.083609323331</v>
+        <v>1255.079079149434</v>
       </c>
       <c r="O43" t="n">
-        <v>1552.661097703298</v>
+        <v>1704.034595081197</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.954020728962</v>
+        <v>1774.327518106861</v>
       </c>
       <c r="Q43" t="n">
         <v>1813.961680532374</v>
@@ -7596,25 +7596,25 @@
         <v>1813.961680532374</v>
       </c>
       <c r="S43" t="n">
-        <v>1813.961680532374</v>
+        <v>1657.418402740428</v>
       </c>
       <c r="T43" t="n">
-        <v>1573.954691523946</v>
+        <v>1650.145541629774</v>
       </c>
       <c r="U43" t="n">
-        <v>1293.81278377445</v>
+        <v>1370.003633880279</v>
       </c>
       <c r="V43" t="n">
-        <v>1293.81278377445</v>
+        <v>1088.292166488307</v>
       </c>
       <c r="W43" t="n">
-        <v>1018.960379946963</v>
+        <v>1088.292166488307</v>
       </c>
       <c r="X43" t="n">
-        <v>776.3964833927681</v>
+        <v>1088.292166488307</v>
       </c>
       <c r="Y43" t="n">
-        <v>776.3964833927681</v>
+        <v>1088.292166488307</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>592.3846964960816</v>
+        <v>741.4654971718905</v>
       </c>
       <c r="C44" t="n">
-        <v>592.3846964960816</v>
+        <v>741.4654971718905</v>
       </c>
       <c r="D44" t="n">
-        <v>592.3846964960816</v>
+        <v>741.4654971718905</v>
       </c>
       <c r="E44" t="n">
-        <v>592.3846964960816</v>
+        <v>741.4654971718905</v>
       </c>
       <c r="F44" t="n">
-        <v>167.2605146854818</v>
+        <v>316.3413153612908</v>
       </c>
       <c r="G44" t="n">
-        <v>36.27923361064749</v>
+        <v>316.3413153612908</v>
       </c>
       <c r="H44" t="n">
         <v>36.27923361064749</v>
@@ -7663,7 +7663,7 @@
         <v>1124.94950294922</v>
       </c>
       <c r="O44" t="n">
-        <v>1385.491526052462</v>
+        <v>1375.05145605804</v>
       </c>
       <c r="P44" t="n">
         <v>1593.341344078073</v>
@@ -7675,25 +7675,25 @@
         <v>1813.961680532374</v>
       </c>
       <c r="S44" t="n">
-        <v>1813.961680532374</v>
+        <v>1749.214646409679</v>
       </c>
       <c r="T44" t="n">
-        <v>1813.961680532374</v>
+        <v>1535.900164348146</v>
       </c>
       <c r="U44" t="n">
-        <v>1813.961680532374</v>
+        <v>1277.68434965878</v>
       </c>
       <c r="V44" t="n">
-        <v>1813.961680532374</v>
+        <v>920.1949347850293</v>
       </c>
       <c r="W44" t="n">
-        <v>1417.570330832721</v>
+        <v>920.1949347850293</v>
       </c>
       <c r="X44" t="n">
-        <v>1417.570330832721</v>
+        <v>920.1949347850293</v>
       </c>
       <c r="Y44" t="n">
-        <v>1012.233060787612</v>
+        <v>920.1949347850293</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>593.4879205506635</v>
+        <v>593.4879205506643</v>
       </c>
       <c r="C45" t="n">
-        <v>475.9820170681683</v>
+        <v>475.9820170681691</v>
       </c>
       <c r="D45" t="n">
-        <v>372.1420585834533</v>
+        <v>372.1420585834541</v>
       </c>
       <c r="E45" t="n">
-        <v>267.4401248563905</v>
+        <v>267.4401248563913</v>
       </c>
       <c r="F45" t="n">
-        <v>173.7942945392946</v>
+        <v>173.7942945392955</v>
       </c>
       <c r="G45" t="n">
-        <v>80.67080067165089</v>
+        <v>80.67080067165176</v>
       </c>
       <c r="H45" t="n">
-        <v>36.27923361064663</v>
+        <v>36.27923361064749</v>
       </c>
       <c r="I45" t="n">
-        <v>51.66049294898914</v>
+        <v>75.11779879340185</v>
       </c>
       <c r="J45" t="n">
-        <v>117.3973237155711</v>
+        <v>140.8546295599838</v>
       </c>
       <c r="K45" t="n">
-        <v>242.4521969218143</v>
+        <v>265.909502766227</v>
       </c>
       <c r="L45" t="n">
-        <v>418.1313196152123</v>
+        <v>441.588625459625</v>
       </c>
       <c r="M45" t="n">
-        <v>626.2860606275073</v>
+        <v>649.7433664719199</v>
       </c>
       <c r="N45" t="n">
-        <v>842.2914430494437</v>
+        <v>865.7487488938564</v>
       </c>
       <c r="O45" t="n">
-        <v>1179.278855668845</v>
+        <v>1059.74075701332</v>
       </c>
       <c r="P45" t="n">
-        <v>1331.832921557726</v>
+        <v>1226.37742127282</v>
       </c>
       <c r="Q45" t="n">
-        <v>1780.788437489488</v>
+        <v>1675.332937204583</v>
       </c>
       <c r="R45" t="n">
-        <v>1813.961680532374</v>
+        <v>1813.961680532375</v>
       </c>
       <c r="S45" t="n">
-        <v>1749.916937343522</v>
+        <v>1749.916937343523</v>
       </c>
       <c r="T45" t="n">
-        <v>1611.786674464259</v>
+        <v>1611.78667446426</v>
       </c>
       <c r="U45" t="n">
-        <v>1427.079680878287</v>
+        <v>1427.079680878288</v>
       </c>
       <c r="V45" t="n">
         <v>1222.106542017554</v>
       </c>
       <c r="W45" t="n">
-        <v>1025.585164850771</v>
+        <v>1025.585164850772</v>
       </c>
       <c r="X45" t="n">
-        <v>862.1078186174338</v>
+        <v>862.1078186174346</v>
       </c>
       <c r="Y45" t="n">
-        <v>722.4149299707262</v>
+        <v>722.414929970727</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.1413598198834</v>
+        <v>353.0286828059604</v>
       </c>
       <c r="C46" t="n">
-        <v>173.1413598198834</v>
+        <v>181.0561196848764</v>
       </c>
       <c r="D46" t="n">
-        <v>173.1413598198834</v>
+        <v>181.0561196848764</v>
       </c>
       <c r="E46" t="n">
-        <v>173.1413598198834</v>
+        <v>181.0561196848764</v>
       </c>
       <c r="F46" t="n">
-        <v>173.1413598198834</v>
+        <v>181.0561196848764</v>
       </c>
       <c r="G46" t="n">
-        <v>173.1413598198834</v>
+        <v>36.27923361064749</v>
       </c>
       <c r="H46" t="n">
         <v>36.27923361064749</v>
@@ -7806,52 +7806,52 @@
         <v>36.27923361064749</v>
       </c>
       <c r="J46" t="n">
-        <v>69.89146351344726</v>
+        <v>147.8131801616682</v>
       </c>
       <c r="K46" t="n">
-        <v>137.9450787526591</v>
+        <v>215.86679540088</v>
       </c>
       <c r="L46" t="n">
-        <v>357.1680472859089</v>
+        <v>568.9807189987584</v>
       </c>
       <c r="M46" t="n">
-        <v>806.1235632176715</v>
+        <v>1017.936234930521</v>
       </c>
       <c r="N46" t="n">
-        <v>1255.079079149434</v>
+        <v>1466.891750862284</v>
       </c>
       <c r="O46" t="n">
-        <v>1704.034595081197</v>
+        <v>1552.661097703298</v>
       </c>
       <c r="P46" t="n">
-        <v>1774.327518106861</v>
+        <v>1622.954020728962</v>
       </c>
       <c r="Q46" t="n">
         <v>1813.961680532374</v>
       </c>
       <c r="R46" t="n">
-        <v>1801.990825634463</v>
+        <v>1813.961680532374</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.447547842517</v>
+        <v>1813.961680532374</v>
       </c>
       <c r="T46" t="n">
-        <v>1645.447547842517</v>
+        <v>1573.954691523946</v>
       </c>
       <c r="U46" t="n">
-        <v>1365.305640093022</v>
+        <v>1293.81278377445</v>
       </c>
       <c r="V46" t="n">
-        <v>1107.066397223889</v>
+        <v>1012.101316382479</v>
       </c>
       <c r="W46" t="n">
-        <v>832.213993396402</v>
+        <v>1012.101316382479</v>
       </c>
       <c r="X46" t="n">
-        <v>589.6500968422071</v>
+        <v>769.537419828284</v>
       </c>
       <c r="Y46" t="n">
-        <v>363.3073285319491</v>
+        <v>543.194651518026</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>63.88091092762902</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7996,13 +7996,13 @@
         <v>64.37125695822481</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>65.69167194305098</v>
       </c>
       <c r="Q2" t="n">
         <v>64.24098473741773</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>63.14896002761616</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>47.59141193553404</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,10 +8066,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>51.21309064514766</v>
+        <v>42.55521653683996</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>49.45933834636135</v>
       </c>
       <c r="O3" t="n">
         <v>51.28819985504191</v>
@@ -8142,19 +8142,19 @@
         <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
-        <v>50.03507002852091</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>49.55573749368652</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>48.86521110842008</v>
       </c>
       <c r="O4" t="n">
         <v>50.61549763124414</v>
       </c>
       <c r="P4" t="n">
-        <v>49.36109826018719</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
         <v>52.73587289760464</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>66.42835256544261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>64.25992043664672</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>65.50726948884378</v>
       </c>
       <c r="P5" t="n">
-        <v>64.55565941243201</v>
+        <v>65.69167194305098</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8291,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>48.72742446615302</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>50.63139684704925</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>42.55521653683996</v>
       </c>
       <c r="N6" t="n">
         <v>49.45933834636135</v>
@@ -8315,7 +8315,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>49.72733589117921</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>51.78922952696383</v>
@@ -8376,22 +8376,22 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>49.08096458553168</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L7" t="n">
-        <v>50.03507002852091</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M7" t="n">
-        <v>50.69175002430551</v>
+        <v>49.55573749368652</v>
       </c>
       <c r="N7" t="n">
-        <v>20.74890097560039</v>
+        <v>48.86521110842008</v>
       </c>
       <c r="O7" t="n">
-        <v>49.47948510062515</v>
+        <v>50.61549763124414</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>50.49711079080617</v>
       </c>
       <c r="Q7" t="n">
         <v>24.61956276478495</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>63.88091092762902</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>65.29234003482364</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>65.54757303225151</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>65.39593296726571</v>
       </c>
       <c r="O8" t="n">
-        <v>64.37125695822481</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>64.24098473741773</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>63.14896002761616</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>48.72742446615302</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8540,10 +8540,10 @@
         <v>50.63139684704925</v>
       </c>
       <c r="M9" t="n">
-        <v>50.07707811452869</v>
+        <v>42.55521653683996</v>
       </c>
       <c r="N9" t="n">
-        <v>49.45933834636135</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>48.75306611672156</v>
       </c>
       <c r="K10" t="n">
         <v>20.964654452712</v>
       </c>
       <c r="L10" t="n">
-        <v>50.03507002852091</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M10" t="n">
-        <v>22.57543989148582</v>
+        <v>49.55573749368652</v>
       </c>
       <c r="N10" t="n">
         <v>48.86521110842008</v>
       </c>
       <c r="O10" t="n">
-        <v>49.47948510062515</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P10" t="n">
-        <v>50.49711079080617</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>52.73587289760464</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>10.54552524689248</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>10.5455252468924</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>14.2248468390093</v>
       </c>
       <c r="K12" t="n">
-        <v>259.8824867809839</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>243.2331059792607</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>358.6757902350556</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8859,13 +8859,13 @@
         <v>355.0333843341415</v>
       </c>
       <c r="N13" t="n">
-        <v>241.1059519957687</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>162.397147300596</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.54552524689254</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.54552524689255</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>276.0367608468333</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>227.078831913411</v>
+        <v>299.3954040837192</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>73.50523299034546</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9090,16 +9090,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>360.6167942814526</v>
       </c>
       <c r="M16" t="n">
         <v>355.0333843341415</v>
       </c>
       <c r="N16" t="n">
-        <v>356.08472716929</v>
+        <v>9.494624696657638</v>
       </c>
       <c r="O16" t="n">
-        <v>14.02669180882037</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>136.5108647874335</v>
       </c>
       <c r="L17" t="n">
-        <v>516.2205229087782</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>479.6863508603532</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>186.8835711679106</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>503.1155927602441</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>77.84761437750791</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464861</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9412,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>146.2838499992238</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>496.9138353056722</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>539.5927596321461</v>
+        <v>136.5108647874334</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>503.1155927602441</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>354.0244856856735</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>938.2190464111247</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>933.176770993447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>420.6404575241107</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>11.53473945835685</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>77.84761437750748</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>941.5946329090523</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>910.102736278305</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>905.0604608606272</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>309.3112295234504</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>110.3422221628687</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>503.1155927602441</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>521.9029415335763</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>941.5946329090524</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>68.83230601558196</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>503.1155927602441</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>176.7390707851519</v>
       </c>
       <c r="L32" t="n">
-        <v>941.5946329090523</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>905.0604608606272</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>129.3725342863502</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>77.84761437750788</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>396.5948854017533</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>484.7286262780308</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>201.2447405148338</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>136.5108647874334</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>503.1155927602441</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>396.5948854017532</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464861</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10755,7 +10755,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>402.0534574160398</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>566.351227043051</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>516.2205229087782</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>136.5108647874334</v>
       </c>
       <c r="Q38" t="n">
-        <v>100.2186949852126</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>503.1155927602441</v>
+        <v>77.84761437750808</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>37.91909516669762</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>77.84761437750763</v>
       </c>
       <c r="Q42" t="n">
-        <v>358.6757902350554</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11220,10 +11220,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>128.5637161011363</v>
       </c>
       <c r="M43" t="n">
         <v>355.0333843341413</v>
@@ -11232,13 +11232,13 @@
         <v>356.0847271692897</v>
       </c>
       <c r="O43" t="n">
-        <v>92.73549650399244</v>
+        <v>366.8547162532815</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>10.5455252468912</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>10.54552524689123</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>144.4398025251887</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>14.22484683900899</v>
       </c>
       <c r="Q45" t="n">
         <v>358.6757902350554</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>128.5637161011363</v>
+        <v>263.8071050553067</v>
       </c>
       <c r="M46" t="n">
         <v>355.0333843341413</v>
@@ -11469,13 +11469,13 @@
         <v>356.0847271692897</v>
       </c>
       <c r="O46" t="n">
-        <v>366.8547162532815</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>244.1091256112271</v>
       </c>
       <c r="G11" t="n">
         <v>398.5743746979489</v>
@@ -23314,7 +23314,7 @@
         <v>211.1813372409181</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6336565424721</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.2351808454879</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>86.818400271473</v>
+        <v>64.49960172857229</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9778450140267</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>147.0260685498562</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -23551,7 +23551,7 @@
         <v>211.1813372409181</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>141.6364625919429</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23667,13 +23667,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8222853925791</v>
       </c>
       <c r="H16" t="n">
         <v>135.4935049471435</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.55129030293031</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.85114634893206</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>113.4997700998778</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>98.00553067521835</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>43.60948020874213</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1813372409181</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6336565424721</v>
       </c>
       <c r="V17" t="n">
-        <v>208.1163088967575</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>17.92647420937791</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>153.8728749975181</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>272.5666147118515</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1813372409181</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6336565424721</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>17.92647420937791</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.85114634893206</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>6.075327860445526</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>129.082400225809</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>193.1819640072782</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>17.92647420937706</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>17.92647420937707</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>302.2957403707251</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>302.2957403707252</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>17.92647420937679</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>11.85114634893206</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>6.07532786044419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>302.2957403707251</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>302.2957403707252</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.075327860444787</v>
       </c>
       <c r="H31" t="n">
-        <v>17.92647420937675</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>11.85114634893206</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>302.2957403707251</v>
+        <v>25.03427943758828</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>17.92647420937679</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>17.92647420937632</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.5743746979489</v>
+        <v>16.30223708726345</v>
       </c>
       <c r="H35" t="n">
         <v>277.2614609331368</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>211.1813372409181</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>242.1547935562934</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>17.92647420937789</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>17.92647420937791</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>341.3562610507796</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.5743746979489</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>255.6336565424721</v>
       </c>
       <c r="V38" t="n">
-        <v>264.5251871761905</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>17.92647420937789</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6.075327860445967</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>11.85114634893206</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>321.163861724031</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -25639,10 +25639,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.5743746979489</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>277.2614609331368</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6336565424721</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>90.19297433397054</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.17912116113126</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8222853925791</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>135.4935049471435</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>11.85114634893206</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9778450140267</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.4067866187969</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>238.7077374116074</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>268.902906433863</v>
+        <v>398.5743746979489</v>
       </c>
       <c r="H44" t="n">
-        <v>277.2614609331368</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.1813372409181</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6336565424721</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26037,10 +26037,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8222853925791</v>
+        <v>20.49316817909246</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>135.4935049471435</v>
       </c>
       <c r="I46" t="n">
         <v>75.55129030293031</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>11.85114634893206</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.9778450140267</v>
       </c>
       <c r="T46" t="n">
-        <v>237.6069191183444</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>23.23750227761016</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>617146.2301822794</v>
+        <v>617146.2301822795</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>617146.2301822794</v>
+        <v>617146.2301822795</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448606.8605513357</v>
+        <v>448606.8605513356</v>
       </c>
     </row>
     <row r="15">
@@ -26322,19 +26322,19 @@
         <v>495076.2678094886</v>
       </c>
       <c r="E2" t="n">
-        <v>261391.008971629</v>
+        <v>261391.0089716291</v>
       </c>
       <c r="F2" t="n">
-        <v>261391.008971629</v>
+        <v>261391.0089716291</v>
       </c>
       <c r="G2" t="n">
-        <v>362564.6616357487</v>
+        <v>362564.6616357482</v>
       </c>
       <c r="H2" t="n">
         <v>362564.6616357482</v>
       </c>
       <c r="I2" t="n">
-        <v>481639.8760508854</v>
+        <v>481639.8760508852</v>
       </c>
       <c r="J2" t="n">
         <v>474257.2379421344</v>
@@ -26343,16 +26343,16 @@
         <v>474257.2379421343</v>
       </c>
       <c r="L2" t="n">
-        <v>474257.2379421344</v>
+        <v>474257.2379421347</v>
       </c>
       <c r="M2" t="n">
         <v>362564.6616357483</v>
       </c>
       <c r="N2" t="n">
-        <v>362564.6616357483</v>
+        <v>362564.6616357484</v>
       </c>
       <c r="O2" t="n">
-        <v>261391.0089716289</v>
+        <v>261391.0089716288</v>
       </c>
       <c r="P2" t="n">
         <v>261391.0089716289</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>321778.1116303672</v>
+        <v>321778.1116303671</v>
       </c>
       <c r="C4" t="n">
         <v>321778.1116303672</v>
@@ -26426,16 +26426,16 @@
         <v>321778.1116303671</v>
       </c>
       <c r="E4" t="n">
-        <v>19566.39565315339</v>
+        <v>19566.39565315338</v>
       </c>
       <c r="F4" t="n">
-        <v>19566.39565315339</v>
+        <v>19566.39565315338</v>
       </c>
       <c r="G4" t="n">
         <v>65290.27764363553</v>
       </c>
       <c r="H4" t="n">
-        <v>65290.27764363555</v>
+        <v>65290.27764363553</v>
       </c>
       <c r="I4" t="n">
         <v>119104.4961535103</v>
@@ -26450,7 +26450,7 @@
         <v>115768.0259878673</v>
       </c>
       <c r="M4" t="n">
-        <v>65290.27764363551</v>
+        <v>65290.27764363553</v>
       </c>
       <c r="N4" t="n">
         <v>65290.27764363553</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128538.6623224051</v>
+        <v>128538.6623224052</v>
       </c>
       <c r="C6" t="n">
         <v>137961.084523046</v>
       </c>
       <c r="D6" t="n">
-        <v>137961.084523046</v>
+        <v>137961.0845230461</v>
       </c>
       <c r="E6" t="n">
-        <v>-266084.3111693522</v>
+        <v>-266771.6207541694</v>
       </c>
       <c r="F6" t="n">
-        <v>204918.2319877371</v>
+        <v>204230.9224029199</v>
       </c>
       <c r="G6" t="n">
-        <v>161224.7456381267</v>
+        <v>160835.0056199682</v>
       </c>
       <c r="H6" t="n">
-        <v>242368.0623027033</v>
+        <v>241978.3222845453</v>
       </c>
       <c r="I6" t="n">
-        <v>159464.2146516612</v>
+        <v>159424.695852371</v>
       </c>
       <c r="J6" t="n">
-        <v>277720.1443768411</v>
+        <v>277658.9119360548</v>
       </c>
       <c r="K6" t="n">
-        <v>277720.144376841</v>
+        <v>277658.9119360547</v>
       </c>
       <c r="L6" t="n">
-        <v>277720.1443768411</v>
+        <v>277658.9119360551</v>
       </c>
       <c r="M6" t="n">
-        <v>242368.0623027034</v>
+        <v>241978.3222845453</v>
       </c>
       <c r="N6" t="n">
-        <v>242368.0623027035</v>
+        <v>241978.3222845455</v>
       </c>
       <c r="O6" t="n">
-        <v>204918.231987737</v>
+        <v>204230.9224029197</v>
       </c>
       <c r="P6" t="n">
-        <v>204918.231987737</v>
+        <v>204230.9224029198</v>
       </c>
     </row>
   </sheetData>
@@ -27460,22 +27460,22 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>91.56599848268269</v>
+        <v>88.21453431485057</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>78.03671293488026</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>75.53860425697246</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>64.5930618811052</v>
       </c>
       <c r="G3" t="n">
-        <v>64.99692393175235</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>24.72602217249382</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>112.3448262124788</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
         <v>182.9205141195597</v>
@@ -27539,7 +27539,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>145.4879915248856</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27551,10 +27551,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>139.8295540437226</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2419956741075</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>70.65457244430709</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>212.7896441635393</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -27605,7 +27605,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.9630304943357</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27706,13 +27706,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>67.94452604893732</v>
       </c>
       <c r="G6" t="n">
-        <v>93.11323406457203</v>
+        <v>64.99692393175235</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>24.72602217249382</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>55.74615899937044</v>
+        <v>52.39469483153834</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>154.80420398674</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>166.4398532622953</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.1796496274208</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.1479988921253</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>142.1365273570535</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -27785,7 +27785,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>142.0268463503655</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>216.1411083313714</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -27836,10 +27836,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>243.9875696563924</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>212.0219474558332</v>
+        <v>215.3734116236654</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -27934,16 +27934,16 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
-        <v>88.21453431485057</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6549143897921</v>
+        <v>78.89006842480458</v>
       </c>
       <c r="F9" t="n">
-        <v>64.5930618811052</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G9" t="n">
         <v>93.11323406457203</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>80.51100496435802</v>
+        <v>52.39469483153834</v>
       </c>
       <c r="T9" t="n">
-        <v>140.4611363452985</v>
+        <v>112.3448262124788</v>
       </c>
       <c r="U9" t="n">
         <v>182.9205141195597</v>
@@ -27994,13 +27994,13 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W9" t="n">
-        <v>194.556163395115</v>
+        <v>166.4398532622953</v>
       </c>
       <c r="X9" t="n">
-        <v>137.0777268060161</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.1796496274208</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="10">
@@ -28013,10 +28013,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>142.1365273570535</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>133.5672950116773</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.803381214711</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28067,16 +28067,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>249.2662938818791</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>250.7780425852317</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>243.9875696563924</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>215.3734116236654</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34716,13 +34716,13 @@
         <v>26.98029760220071</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="Q2" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>19.45843602451198</v>
+      </c>
+      <c r="N3" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>28.11631013281968</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="N4" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="P4" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>28.11631013281968</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="O5" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>26.98029760220071</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35011,19 +35011,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>19.45843602451198</v>
       </c>
       <c r="N6" t="n">
         <v>28.11631013281968</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>28.11631013281968</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="N7" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>26.98029760220071</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="M8" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>28.11631013281968</v>
       </c>
       <c r="M9" t="n">
-        <v>26.98029760220071</v>
+        <v>19.45843602451199</v>
       </c>
       <c r="N9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="N10" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="O10" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>183.1908437260755</v>
       </c>
       <c r="L11" t="n">
-        <v>243.8670731072408</v>
+        <v>233.3215478603483</v>
       </c>
       <c r="M11" t="n">
         <v>264.8134444910957</v>
       </c>
       <c r="N11" t="n">
-        <v>269.8557199087733</v>
+        <v>280.4012451556657</v>
       </c>
       <c r="O11" t="n">
         <v>252.6282354634544</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J12" t="n">
-        <v>66.40083915816363</v>
+        <v>80.62568599717294</v>
       </c>
       <c r="K12" t="n">
-        <v>386.2005405246638</v>
+        <v>126.31805374368</v>
       </c>
       <c r="L12" t="n">
         <v>177.4536592862605</v>
       </c>
       <c r="M12" t="n">
-        <v>453.4904201330939</v>
+        <v>210.2573141538332</v>
       </c>
       <c r="N12" t="n">
         <v>218.187254971653</v>
@@ -35509,10 +35509,10 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.81462989803825</v>
+        <v>453.4904201330939</v>
       </c>
       <c r="R12" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.95174737656544</v>
+        <v>112.660552071738</v>
       </c>
       <c r="K13" t="n">
         <v>318.5214387406403</v>
@@ -35579,13 +35579,13 @@
         <v>453.4904201330939</v>
       </c>
       <c r="N13" t="n">
-        <v>338.5116449595726</v>
+        <v>97.40569296380386</v>
       </c>
       <c r="O13" t="n">
         <v>86.63570387981216</v>
       </c>
       <c r="P13" t="n">
-        <v>71.00295255117602</v>
+        <v>233.400099851772</v>
       </c>
       <c r="Q13" t="n">
         <v>40.03450750051844</v>
@@ -35667,10 +35667,10 @@
         <v>209.9493111369805</v>
       </c>
       <c r="Q14" t="n">
-        <v>160.3015716077118</v>
+        <v>149.7560463608193</v>
       </c>
       <c r="R14" t="n">
-        <v>73.09277834049561</v>
+        <v>83.63830358738817</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J15" t="n">
         <v>66.40083915816363</v>
@@ -35731,7 +35731,7 @@
         <v>126.31805374368</v>
       </c>
       <c r="L15" t="n">
-        <v>453.4904201330939</v>
+        <v>177.4536592862605</v>
       </c>
       <c r="M15" t="n">
         <v>210.2573141538332</v>
@@ -35743,13 +35743,13 @@
         <v>195.9515233529941</v>
       </c>
       <c r="P15" t="n">
-        <v>381.1738479627857</v>
+        <v>453.4904201330939</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.81462989803825</v>
+        <v>168.3198628883837</v>
       </c>
       <c r="R15" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>318.5214387406403</v>
       </c>
       <c r="L16" t="n">
-        <v>92.87362585164126</v>
+        <v>453.4904201330939</v>
       </c>
       <c r="M16" t="n">
         <v>453.4904201330939</v>
       </c>
       <c r="N16" t="n">
-        <v>453.4904201330939</v>
+        <v>106.9003176604615</v>
       </c>
       <c r="O16" t="n">
-        <v>100.6623956886325</v>
+        <v>86.63570387981216</v>
       </c>
       <c r="P16" t="n">
         <v>71.00295255117602</v>
@@ -35883,31 +35883,31 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J17" t="n">
-        <v>116.6729792792254</v>
+        <v>512.3590587818782</v>
       </c>
       <c r="K17" t="n">
-        <v>183.1908437260755</v>
+        <v>319.701708513509</v>
       </c>
       <c r="L17" t="n">
-        <v>749.5420707691266</v>
+        <v>233.3215478603483</v>
       </c>
       <c r="M17" t="n">
         <v>264.8134444910957</v>
       </c>
       <c r="N17" t="n">
-        <v>749.5420707691266</v>
+        <v>269.8557199087733</v>
       </c>
       <c r="O17" t="n">
-        <v>439.5118066313651</v>
+        <v>252.6282354634544</v>
       </c>
       <c r="P17" t="n">
         <v>209.9493111369805</v>
       </c>
       <c r="Q17" t="n">
-        <v>149.7560463608193</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R17" t="n">
-        <v>73.09277834049561</v>
+        <v>226.8692008432745</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J18" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K18" t="n">
         <v>126.31805374368</v>
       </c>
       <c r="L18" t="n">
-        <v>680.5692520465046</v>
+        <v>177.4536592862605</v>
       </c>
       <c r="M18" t="n">
-        <v>210.2573141538332</v>
+        <v>288.1049285313412</v>
       </c>
       <c r="N18" t="n">
         <v>218.187254971653</v>
@@ -35986,7 +35986,7 @@
         <v>94.81462989803825</v>
       </c>
       <c r="R18" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>112.660552071738</v>
       </c>
       <c r="K19" t="n">
-        <v>318.5214387406395</v>
+        <v>318.5214387406403</v>
       </c>
       <c r="L19" t="n">
         <v>473.0644274588786</v>
@@ -36120,7 +36120,7 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J20" t="n">
-        <v>116.6729792792254</v>
+        <v>512.3590587818782</v>
       </c>
       <c r="K20" t="n">
         <v>183.1908437260755</v>
@@ -36132,19 +36132,19 @@
         <v>264.8134444910957</v>
       </c>
       <c r="N20" t="n">
-        <v>416.1395699079972</v>
+        <v>269.8557199087733</v>
       </c>
       <c r="O20" t="n">
-        <v>749.5420707691266</v>
+        <v>252.6282354634544</v>
       </c>
       <c r="P20" t="n">
-        <v>749.5420707691266</v>
+        <v>346.4601759244139</v>
       </c>
       <c r="Q20" t="n">
-        <v>149.7560463608193</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R20" t="n">
-        <v>73.09277834049561</v>
+        <v>226.8692008432745</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J21" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K21" t="n">
         <v>126.31805374368</v>
@@ -36217,13 +36217,13 @@
         <v>195.9515233529941</v>
       </c>
       <c r="P21" t="n">
-        <v>657.2106088096189</v>
+        <v>154.0950160493747</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.81462989803825</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R21" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J23" t="n">
-        <v>116.6729792792254</v>
+        <v>512.3590587818782</v>
       </c>
       <c r="K23" t="n">
-        <v>183.1908437260755</v>
+        <v>941.691109142601</v>
       </c>
       <c r="L23" t="n">
-        <v>587.3460335460219</v>
+        <v>233.3215478603483</v>
       </c>
       <c r="M23" t="n">
-        <v>1203.03249090222</v>
+        <v>264.8134444910957</v>
       </c>
       <c r="N23" t="n">
-        <v>1203.03249090222</v>
+        <v>269.8557199087733</v>
       </c>
       <c r="O23" t="n">
-        <v>252.6282354634544</v>
+        <v>673.2686929875651</v>
       </c>
       <c r="P23" t="n">
         <v>962.9582882582498</v>
       </c>
       <c r="Q23" t="n">
-        <v>149.7560463608193</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R23" t="n">
-        <v>73.09277834049561</v>
+        <v>226.8692008432745</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J24" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K24" t="n">
         <v>126.31805374368</v>
@@ -36451,16 +36451,16 @@
         <v>218.187254971653</v>
       </c>
       <c r="O24" t="n">
-        <v>207.486262811351</v>
+        <v>195.9515233529941</v>
       </c>
       <c r="P24" t="n">
         <v>154.0950160493747</v>
       </c>
       <c r="Q24" t="n">
-        <v>586.3954831999251</v>
+        <v>172.6622442755457</v>
       </c>
       <c r="R24" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J26" t="n">
-        <v>116.6729792792254</v>
+        <v>512.3590587818782</v>
       </c>
       <c r="K26" t="n">
-        <v>183.1908437260755</v>
+        <v>941.691109142601</v>
       </c>
       <c r="L26" t="n">
-        <v>1174.916180769401</v>
+        <v>233.3215478603483</v>
       </c>
       <c r="M26" t="n">
-        <v>1174.916180769401</v>
+        <v>264.8134444910957</v>
       </c>
       <c r="N26" t="n">
-        <v>1174.916180769401</v>
+        <v>269.8557199087733</v>
       </c>
       <c r="O26" t="n">
-        <v>252.6282354634544</v>
+        <v>561.9394649869048</v>
       </c>
       <c r="P26" t="n">
-        <v>209.9493111369805</v>
+        <v>962.9582882582498</v>
       </c>
       <c r="Q26" t="n">
-        <v>149.7560463608193</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R26" t="n">
-        <v>183.4350005033643</v>
+        <v>226.8692008432745</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J27" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K27" t="n">
-        <v>629.433646503924</v>
+        <v>204.1656681211879</v>
       </c>
       <c r="L27" t="n">
         <v>177.4536592862605</v>
@@ -36697,7 +36697,7 @@
         <v>94.81462989803825</v>
       </c>
       <c r="R27" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J29" t="n">
-        <v>116.6729792792254</v>
+        <v>512.3590587818782</v>
       </c>
       <c r="K29" t="n">
-        <v>705.0937852596518</v>
+        <v>941.691109142601</v>
       </c>
       <c r="L29" t="n">
-        <v>1174.916180769401</v>
+        <v>233.3215478603483</v>
       </c>
       <c r="M29" t="n">
         <v>264.8134444910957</v>
@@ -36846,16 +36846,16 @@
         <v>269.8557199087733</v>
       </c>
       <c r="O29" t="n">
-        <v>252.6282354634544</v>
+        <v>1143.700659618279</v>
       </c>
       <c r="P29" t="n">
         <v>962.9582882582498</v>
       </c>
       <c r="Q29" t="n">
-        <v>646.5731245049963</v>
+        <v>149.7560463608193</v>
       </c>
       <c r="R29" t="n">
-        <v>226.8692008432745</v>
+        <v>141.9250843560776</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J30" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K30" t="n">
-        <v>126.31805374368</v>
+        <v>204.1656681211879</v>
       </c>
       <c r="L30" t="n">
         <v>177.4536592862605</v>
@@ -36928,13 +36928,13 @@
         <v>195.9515233529941</v>
       </c>
       <c r="P30" t="n">
-        <v>657.2106088096189</v>
+        <v>154.0950160493747</v>
       </c>
       <c r="Q30" t="n">
         <v>94.81462989803825</v>
       </c>
       <c r="R30" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J32" t="n">
-        <v>116.6729792792254</v>
+        <v>512.3590587818782</v>
       </c>
       <c r="K32" t="n">
-        <v>183.1908437260755</v>
+        <v>359.9299145112274</v>
       </c>
       <c r="L32" t="n">
-        <v>1174.916180769401</v>
+        <v>233.3215478603483</v>
       </c>
       <c r="M32" t="n">
         <v>264.8134444910957</v>
       </c>
       <c r="N32" t="n">
-        <v>1174.916180769401</v>
+        <v>269.8557199087733</v>
       </c>
       <c r="O32" t="n">
         <v>1143.700659618279</v>
       </c>
       <c r="P32" t="n">
-        <v>339.3218454233307</v>
+        <v>962.9582882582498</v>
       </c>
       <c r="Q32" t="n">
-        <v>149.7560463608193</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R32" t="n">
-        <v>73.09277834049561</v>
+        <v>226.8692008432745</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J33" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K33" t="n">
         <v>126.31805374368</v>
@@ -37159,13 +37159,13 @@
         <v>210.2573141538332</v>
       </c>
       <c r="N33" t="n">
-        <v>218.187254971653</v>
+        <v>296.0348693491609</v>
       </c>
       <c r="O33" t="n">
         <v>195.9515233529941</v>
       </c>
       <c r="P33" t="n">
-        <v>550.6899014511281</v>
+        <v>154.0950160493747</v>
       </c>
       <c r="Q33" t="n">
         <v>94.81462989803825</v>
@@ -37305,7 +37305,7 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J35" t="n">
-        <v>116.6729792792254</v>
+        <v>512.3590587818782</v>
       </c>
       <c r="K35" t="n">
         <v>183.1908437260755</v>
@@ -37314,22 +37314,22 @@
         <v>233.3215478603483</v>
       </c>
       <c r="M35" t="n">
-        <v>749.5420707691266</v>
+        <v>264.8134444910957</v>
       </c>
       <c r="N35" t="n">
         <v>269.8557199087733</v>
       </c>
       <c r="O35" t="n">
-        <v>453.8729759782882</v>
+        <v>252.6282354634544</v>
       </c>
       <c r="P35" t="n">
-        <v>209.9493111369805</v>
+        <v>346.4601759244139</v>
       </c>
       <c r="Q35" t="n">
         <v>646.5731245049963</v>
       </c>
       <c r="R35" t="n">
-        <v>73.09277834049561</v>
+        <v>226.8692008432745</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>126.31805374368</v>
       </c>
       <c r="L36" t="n">
-        <v>177.4536592862605</v>
+        <v>680.5692520465046</v>
       </c>
       <c r="M36" t="n">
         <v>210.2573141538332</v>
@@ -37405,10 +37405,10 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.4095152997915</v>
+        <v>94.81462989803825</v>
       </c>
       <c r="R36" t="n">
-        <v>140.0290336644362</v>
+        <v>33.50832630594552</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>112.660552071738</v>
       </c>
       <c r="K37" t="n">
-        <v>318.5214387406395</v>
+        <v>318.5214387406403</v>
       </c>
       <c r="L37" t="n">
         <v>473.0644274588786</v>
@@ -37475,7 +37475,7 @@
         <v>516.1696423270552</v>
       </c>
       <c r="N37" t="n">
-        <v>499.4591503798445</v>
+        <v>499.4591503798437</v>
       </c>
       <c r="O37" t="n">
         <v>468.1532031759771</v>
@@ -37542,13 +37542,13 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J38" t="n">
-        <v>116.6729792792254</v>
+        <v>512.3590587818782</v>
       </c>
       <c r="K38" t="n">
-        <v>749.5420707691266</v>
+        <v>183.1908437260755</v>
       </c>
       <c r="L38" t="n">
-        <v>749.5420707691266</v>
+        <v>233.3215478603483</v>
       </c>
       <c r="M38" t="n">
         <v>264.8134444910957</v>
@@ -37560,13 +37560,13 @@
         <v>252.6282354634544</v>
       </c>
       <c r="P38" t="n">
-        <v>209.9493111369805</v>
+        <v>346.4601759244139</v>
       </c>
       <c r="Q38" t="n">
-        <v>249.9747413460319</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R38" t="n">
-        <v>73.09277834049561</v>
+        <v>226.8692008432745</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J39" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K39" t="n">
         <v>126.31805374368</v>
@@ -37639,13 +37639,13 @@
         <v>195.9515233529941</v>
       </c>
       <c r="P39" t="n">
-        <v>657.2106088096189</v>
+        <v>231.9426304268828</v>
       </c>
       <c r="Q39" t="n">
         <v>94.81462989803825</v>
       </c>
       <c r="R39" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J42" t="n">
-        <v>104.3199343248613</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K42" t="n">
         <v>126.31805374368</v>
@@ -37876,10 +37876,10 @@
         <v>195.9515233529941</v>
       </c>
       <c r="P42" t="n">
-        <v>154.0950160493747</v>
+        <v>231.9426304268823</v>
       </c>
       <c r="Q42" t="n">
-        <v>453.4904201330936</v>
+        <v>94.81462989803825</v>
       </c>
       <c r="R42" t="n">
         <v>140.0290336644362</v>
@@ -37940,10 +37940,10 @@
         <v>33.95174737656544</v>
       </c>
       <c r="K43" t="n">
-        <v>318.5214387406403</v>
+        <v>68.74102549415339</v>
       </c>
       <c r="L43" t="n">
-        <v>92.87362585164126</v>
+        <v>221.4373419527775</v>
       </c>
       <c r="M43" t="n">
         <v>453.4904201330936</v>
@@ -37952,13 +37952,13 @@
         <v>453.4904201330936</v>
       </c>
       <c r="O43" t="n">
-        <v>179.3712003838046</v>
+        <v>453.4904201330936</v>
       </c>
       <c r="P43" t="n">
         <v>71.00295255117602</v>
       </c>
       <c r="Q43" t="n">
-        <v>192.9370301044569</v>
+        <v>40.03450750051844</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>269.8557199087733</v>
       </c>
       <c r="O44" t="n">
-        <v>263.1737607103456</v>
+        <v>252.6282354634544</v>
       </c>
       <c r="P44" t="n">
-        <v>209.9493111369805</v>
+        <v>220.4948363838717</v>
       </c>
       <c r="Q44" t="n">
         <v>149.7560463608193</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J45" t="n">
         <v>66.40083915816363</v>
@@ -38110,16 +38110,16 @@
         <v>218.187254971653</v>
       </c>
       <c r="O45" t="n">
-        <v>340.3913258781828</v>
+        <v>195.9515233529941</v>
       </c>
       <c r="P45" t="n">
-        <v>154.0950160493747</v>
+        <v>168.3198628883837</v>
       </c>
       <c r="Q45" t="n">
         <v>453.4904201330936</v>
       </c>
       <c r="R45" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.95174737656544</v>
+        <v>112.660552071738</v>
       </c>
       <c r="K46" t="n">
         <v>68.74102549415339</v>
       </c>
       <c r="L46" t="n">
-        <v>221.4373419527775</v>
+        <v>356.6807309069479</v>
       </c>
       <c r="M46" t="n">
         <v>453.4904201330936</v>
@@ -38189,13 +38189,13 @@
         <v>453.4904201330936</v>
       </c>
       <c r="O46" t="n">
-        <v>453.4904201330936</v>
+        <v>86.63570387981216</v>
       </c>
       <c r="P46" t="n">
         <v>71.00295255117602</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.03450750051844</v>
+        <v>192.9370301044569</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
